--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521132.2047470204</v>
+        <v>520465.5176446452</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.075886630925055</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.91776996152072</v>
+        <v>22.91776996152071</v>
       </c>
       <c r="T11" t="n">
-        <v>18.09022035898437</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>45.82706754482453</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>70.79666097819702</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.8613090122909</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="T12" t="n">
-        <v>10.62223208240267</v>
+        <v>77.77687874893429</v>
       </c>
       <c r="U12" t="n">
         <v>32.90513957632349</v>
@@ -1515,7 +1515,7 @@
         <v>12.99041197912433</v>
       </c>
       <c r="Y12" t="n">
-        <v>34.35512132791995</v>
+        <v>19.06178367367934</v>
       </c>
     </row>
     <row r="13">
@@ -1582,13 +1582,13 @@
         <v>19.4157815986074</v>
       </c>
       <c r="U13" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="V13" t="n">
         <v>40.78651272410363</v>
       </c>
       <c r="W13" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="X13" t="n">
         <v>17.59695294789626</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>14.68385330852112</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="I14" t="n">
-        <v>36.21910086722862</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.91776996152066</v>
+        <v>22.91776996152071</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.82706754482453</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>5.075886630925027</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>67.15464666653183</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="T15" t="n">
-        <v>10.62223208240261</v>
+        <v>77.77687874893429</v>
       </c>
       <c r="U15" t="n">
-        <v>32.90513957632344</v>
+        <v>32.90513957632349</v>
       </c>
       <c r="V15" t="n">
-        <v>36.32641845505592</v>
+        <v>36.32641845505597</v>
       </c>
       <c r="W15" t="n">
-        <v>62.38208111666526</v>
+        <v>62.38208111666532</v>
       </c>
       <c r="X15" t="n">
-        <v>12.99041197912427</v>
+        <v>12.99041197912433</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.06178367367929</v>
+        <v>19.06178367367934</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.02061210103634</v>
+        <v>31.0206121010364</v>
       </c>
       <c r="T16" t="n">
-        <v>19.41578159860735</v>
+        <v>19.4157815986074</v>
       </c>
       <c r="U16" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="V16" t="n">
-        <v>40.78651272410357</v>
+        <v>40.78651272410363</v>
       </c>
       <c r="W16" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5969529478962</v>
+        <v>17.59695294789626</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.81877035382209</v>
+        <v>12.81877035382215</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>14.4877815025099</v>
       </c>
       <c r="D17" t="n">
-        <v>2.054443763559469</v>
+        <v>2.054443763559104</v>
       </c>
       <c r="E17" t="n">
         <v>35.76119618296724</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.8613090122909</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R18" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>67.78065507706353</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.91934606477264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2087,7 +2087,7 @@
         <v>2.054443763558368</v>
       </c>
       <c r="E20" t="n">
-        <v>35.76119618296724</v>
+        <v>35.7611961829683</v>
       </c>
       <c r="F20" t="n">
         <v>67.48153376134456</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>73.82072413727043</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.8613090122909</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.95941512497952</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="V21" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
     </row>
     <row r="22">
@@ -2330,7 +2330,7 @@
         <v>67.48153376134456</v>
       </c>
       <c r="G23" t="n">
-        <v>83.10831349049279</v>
+        <v>83.10831349049278</v>
       </c>
       <c r="H23" t="n">
         <v>11.17931715308464</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="S24" t="n">
-        <v>73.82072413727042</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="T24" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>83.81099470625612</v>
+        <v>73.82072413727043</v>
       </c>
       <c r="W24" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>190.3568429661005</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9836226952487</v>
+        <v>205.9836226952488</v>
       </c>
       <c r="H26" t="n">
         <v>134.0546263578406</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39786574795403</v>
+        <v>14.39786574795402</v>
       </c>
       <c r="T26" t="n">
-        <v>9.570316145417678</v>
+        <v>9.570316145417681</v>
       </c>
       <c r="U26" t="n">
         <v>37.30716333125784</v>
@@ -2634,7 +2634,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>104.9257989449315</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R27" t="n">
-        <v>86.45882121708806</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>27.80651424148928</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86217690309863</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>4.470507765557642</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54187946011265</v>
       </c>
     </row>
     <row r="28">
@@ -2795,13 +2795,13 @@
         <v>137.3630907072659</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9297529683144</v>
+        <v>124.9297529683143</v>
       </c>
       <c r="E29" t="n">
         <v>158.6365053877232</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3568429661006</v>
+        <v>190.3568429661005</v>
       </c>
       <c r="G29" t="n">
         <v>205.9836226952488</v>
@@ -2810,7 +2810,7 @@
         <v>134.0546263578406</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69919665366203</v>
+        <v>27.69919665366197</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39786574795408</v>
+        <v>14.39786574795402</v>
       </c>
       <c r="T29" t="n">
-        <v>9.57031614541774</v>
+        <v>9.570316145417681</v>
       </c>
       <c r="U29" t="n">
-        <v>37.3071633312579</v>
+        <v>37.30716333125784</v>
       </c>
       <c r="V29" t="n">
         <v>108.0373769352391</v>
       </c>
       <c r="W29" t="n">
-        <v>125.054057151854</v>
+        <v>125.0540571518539</v>
       </c>
       <c r="X29" t="n">
         <v>146.9403076207932</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.443160744537</v>
+        <v>169.4431607445369</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1397061627909</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.102327868836036</v>
+        <v>2.102327868835979</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38523536275686</v>
+        <v>24.3852353627568</v>
       </c>
       <c r="V30" t="n">
-        <v>37.37280700319888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86217690309869</v>
+        <v>53.86217690309863</v>
       </c>
       <c r="X30" t="n">
-        <v>4.470507765557699</v>
+        <v>79.3444634944489</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.54187946011271</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50070788746977</v>
+        <v>22.50070788746971</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89587738504077</v>
+        <v>10.89587738504071</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81385317476288</v>
+        <v>75.81385317476283</v>
       </c>
       <c r="V31" t="n">
-        <v>32.266608510537</v>
+        <v>32.26660851053694</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46830041542242</v>
+        <v>77.46830041542236</v>
       </c>
       <c r="X31" t="n">
-        <v>9.077048734329622</v>
+        <v>9.077048734329566</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.298866140255512</v>
+        <v>4.298866140255456</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2448337039203</v>
+        <v>161.2448337039204</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3630907072658</v>
+        <v>137.3630907072659</v>
       </c>
       <c r="D32" t="n">
         <v>124.9297529683143</v>
@@ -3047,7 +3047,7 @@
         <v>134.0546263578406</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69919665366194</v>
+        <v>27.69919665366197</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.397865747954</v>
+        <v>14.39786574795403</v>
       </c>
       <c r="T32" t="n">
-        <v>9.57031614541765</v>
+        <v>9.570316145417678</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30716333125781</v>
+        <v>37.30716333125784</v>
       </c>
       <c r="V32" t="n">
-        <v>108.037376935239</v>
+        <v>108.0373769352391</v>
       </c>
       <c r="W32" t="n">
         <v>125.0540571518539</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9403076207931</v>
+        <v>146.9403076207932</v>
       </c>
       <c r="Y32" t="n">
         <v>169.4431607445369</v>
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1397061627909</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>9.566292761710161</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.102327868835951</v>
+        <v>2.102327868835979</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38523536275677</v>
+        <v>233.5755834235261</v>
       </c>
       <c r="V33" t="n">
-        <v>27.80651424148925</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.8621769030986</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.470507765557613</v>
+        <v>4.470507765557642</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54187946011263</v>
+        <v>10.54187946011265</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50070788746968</v>
+        <v>22.50070788746971</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89587738504069</v>
+        <v>10.89587738504071</v>
       </c>
       <c r="U34" t="n">
-        <v>75.8138531747628</v>
+        <v>75.81385317476283</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26660851053691</v>
+        <v>32.26660851053694</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46830041542233</v>
+        <v>77.46830041542236</v>
       </c>
       <c r="X34" t="n">
-        <v>9.077048734329537</v>
+        <v>9.077048734329566</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.298866140255427</v>
+        <v>4.298866140255456</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>180.7860737375398</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U36" t="n">
-        <v>33.37738407856161</v>
+        <v>1.209425642551663</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>4.630704521284144</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>30.68636718289349</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3582,22 +3582,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>28.49606927252487</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7381070793004</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>82.95587254810982</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U39" t="n">
-        <v>1.209425642551663</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V39" t="n">
         <v>4.630704521284144</v>
       </c>
       <c r="W39" t="n">
-        <v>30.68636718289349</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>109.1244114833957</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>1.209425642551663</v>
       </c>
       <c r="V42" t="n">
-        <v>4.630704521284144</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>91.43568043246239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4098,28 +4098,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.209425642551663</v>
+        <v>125.0817766628204</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>4.630704521284144</v>
       </c>
       <c r="W45" t="n">
         <v>30.68636718289349</v>
       </c>
       <c r="X45" t="n">
-        <v>74.59665161120719</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.36244998686021</v>
+        <v>11.8320377895561</v>
       </c>
       <c r="C11" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="D11" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="E11" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F11" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G11" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H11" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I11" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J11" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K11" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="L11" t="n">
-        <v>55.32290868514215</v>
+        <v>55.57893955265298</v>
       </c>
       <c r="M11" t="n">
-        <v>138.2957934443357</v>
+        <v>138.5518243118466</v>
       </c>
       <c r="N11" t="n">
-        <v>215.7688302074189</v>
+        <v>216.0248610749298</v>
       </c>
       <c r="O11" t="n">
-        <v>252.0150631983201</v>
+        <v>252.2710940658311</v>
       </c>
       <c r="P11" t="n">
-        <v>252.2710940658309</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="Q11" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="R11" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="S11" t="n">
-        <v>312.0947162376299</v>
+        <v>312.09471623763</v>
       </c>
       <c r="T11" t="n">
-        <v>293.8217663800699</v>
+        <v>312.09471623763</v>
       </c>
       <c r="U11" t="n">
-        <v>247.5317991630754</v>
+        <v>265.8047490206355</v>
       </c>
       <c r="V11" t="n">
-        <v>247.5317991630754</v>
+        <v>181.1471786102756</v>
       </c>
       <c r="W11" t="n">
-        <v>247.5317991630754</v>
+        <v>181.1471786102756</v>
       </c>
       <c r="X11" t="n">
-        <v>176.0200203972199</v>
+        <v>96.48960819991586</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.0200203972199</v>
+        <v>11.8320377895561</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="C12" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="D12" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="E12" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F12" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G12" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H12" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I12" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J12" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K12" t="n">
-        <v>45.70690058228111</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="L12" t="n">
-        <v>45.70690058228111</v>
+        <v>86.32532454744383</v>
       </c>
       <c r="M12" t="n">
-        <v>86.32532454744381</v>
+        <v>169.2982093066374</v>
       </c>
       <c r="N12" t="n">
-        <v>169.2982093066374</v>
+        <v>252.2710940658311</v>
       </c>
       <c r="O12" t="n">
-        <v>252.2710940658309</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="P12" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="Q12" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="R12" t="n">
-        <v>250.5864084146648</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="S12" t="n">
-        <v>250.5864084146648</v>
+        <v>250.5864084146649</v>
       </c>
       <c r="T12" t="n">
-        <v>239.8568810587025</v>
+        <v>172.0239046278626</v>
       </c>
       <c r="U12" t="n">
-        <v>206.6193663351434</v>
+        <v>138.7863899043035</v>
       </c>
       <c r="V12" t="n">
-        <v>169.9260143603394</v>
+        <v>102.0930379294995</v>
       </c>
       <c r="W12" t="n">
-        <v>106.9138112121926</v>
+        <v>39.08083478135269</v>
       </c>
       <c r="X12" t="n">
-        <v>93.79218295045085</v>
+        <v>25.95920651961094</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="C13" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="D13" t="n">
-        <v>65.2533332640397</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="E13" t="n">
-        <v>65.2533332640397</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F13" t="n">
-        <v>129.9949973035203</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G13" t="n">
-        <v>129.9949973035203</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H13" t="n">
-        <v>168.1560672977637</v>
+        <v>44.86594957074384</v>
       </c>
       <c r="I13" t="n">
-        <v>168.1560672977637</v>
+        <v>49.96866887263498</v>
       </c>
       <c r="J13" t="n">
-        <v>168.1560672977637</v>
+        <v>49.96866887263498</v>
       </c>
       <c r="K13" t="n">
-        <v>168.1560672977637</v>
+        <v>49.96866887263498</v>
       </c>
       <c r="L13" t="n">
-        <v>215.9144383910221</v>
+        <v>132.9415536318286</v>
       </c>
       <c r="M13" t="n">
-        <v>215.9144383910221</v>
+        <v>215.9144383910222</v>
       </c>
       <c r="N13" t="n">
-        <v>298.8873231502157</v>
+        <v>215.9144383910222</v>
       </c>
       <c r="O13" t="n">
-        <v>298.8873231502157</v>
+        <v>215.9144383910222</v>
       </c>
       <c r="P13" t="n">
-        <v>298.8873231502157</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="Q13" t="n">
-        <v>298.8873231502157</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="R13" t="n">
-        <v>298.8873231502157</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="S13" t="n">
-        <v>267.5533715330072</v>
+        <v>267.5533715330074</v>
       </c>
       <c r="T13" t="n">
-        <v>247.9414709283533</v>
+        <v>247.9414709283534</v>
       </c>
       <c r="U13" t="n">
         <v>163.2839005179936</v>
       </c>
       <c r="V13" t="n">
-        <v>122.0854028168788</v>
+        <v>122.0854028168789</v>
       </c>
       <c r="W13" t="n">
-        <v>37.42783240651908</v>
+        <v>37.42783240651909</v>
       </c>
       <c r="X13" t="n">
-        <v>19.65313245914912</v>
+        <v>19.65313245914913</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.7795754169105</v>
+        <v>91.36244998686026</v>
       </c>
       <c r="C14" t="n">
-        <v>142.7795754169105</v>
+        <v>91.36244998686026</v>
       </c>
       <c r="D14" t="n">
-        <v>142.7795754169105</v>
+        <v>91.36244998686026</v>
       </c>
       <c r="E14" t="n">
-        <v>127.9474003577982</v>
+        <v>91.36244998686026</v>
       </c>
       <c r="F14" t="n">
-        <v>43.28982994743849</v>
+        <v>91.36244998686026</v>
       </c>
       <c r="G14" t="n">
-        <v>43.28982994743849</v>
+        <v>91.36244998686026</v>
       </c>
       <c r="H14" t="n">
-        <v>43.28982994743849</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I14" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J14" t="n">
-        <v>89.67776433569405</v>
+        <v>84.43394720709446</v>
       </c>
       <c r="K14" t="n">
-        <v>89.93379520320489</v>
+        <v>84.43394720709446</v>
       </c>
       <c r="L14" t="n">
-        <v>138.5518243118466</v>
+        <v>133.0519763157362</v>
       </c>
       <c r="M14" t="n">
-        <v>221.5247090710401</v>
+        <v>216.0248610749298</v>
       </c>
       <c r="N14" t="n">
-        <v>298.9977458341233</v>
+        <v>298.9977458341234</v>
       </c>
       <c r="O14" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="P14" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="Q14" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="R14" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="S14" t="n">
-        <v>312.0947162376299</v>
+        <v>312.09471623763</v>
       </c>
       <c r="T14" t="n">
-        <v>312.0947162376299</v>
+        <v>312.09471623763</v>
       </c>
       <c r="U14" t="n">
-        <v>312.0947162376299</v>
+        <v>265.8047490206355</v>
       </c>
       <c r="V14" t="n">
-        <v>312.0947162376299</v>
+        <v>181.1471786102758</v>
       </c>
       <c r="W14" t="n">
-        <v>312.0947162376299</v>
+        <v>181.1471786102758</v>
       </c>
       <c r="X14" t="n">
-        <v>312.0947162376299</v>
+        <v>176.02002039722</v>
       </c>
       <c r="Y14" t="n">
-        <v>227.4371458272702</v>
+        <v>176.02002039722</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="C15" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="D15" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="E15" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F15" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G15" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H15" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I15" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J15" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K15" t="n">
-        <v>45.70690058228111</v>
+        <v>45.70690058228113</v>
       </c>
       <c r="L15" t="n">
-        <v>86.32532454744381</v>
+        <v>86.32532454744383</v>
       </c>
       <c r="M15" t="n">
         <v>169.2982093066374</v>
       </c>
       <c r="N15" t="n">
-        <v>252.2710940658309</v>
+        <v>169.2982093066374</v>
       </c>
       <c r="O15" t="n">
-        <v>335.2439788250245</v>
+        <v>252.2710940658311</v>
       </c>
       <c r="P15" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="Q15" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="R15" t="n">
-        <v>267.4110023941843</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="S15" t="n">
-        <v>267.4110023941843</v>
+        <v>250.5864084146649</v>
       </c>
       <c r="T15" t="n">
-        <v>256.681475038222</v>
+        <v>172.0239046278626</v>
       </c>
       <c r="U15" t="n">
-        <v>223.443960314663</v>
+        <v>138.7863899043035</v>
       </c>
       <c r="V15" t="n">
-        <v>186.750608339859</v>
+        <v>102.0930379294995</v>
       </c>
       <c r="W15" t="n">
-        <v>123.7384051917123</v>
+        <v>39.08083478135269</v>
       </c>
       <c r="X15" t="n">
-        <v>110.6167769299706</v>
+        <v>25.95920651961094</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="C16" t="n">
-        <v>6.70487957650049</v>
+        <v>44.19154784999068</v>
       </c>
       <c r="D16" t="n">
-        <v>6.70487957650049</v>
+        <v>44.19154784999068</v>
       </c>
       <c r="E16" t="n">
-        <v>68.72477721214061</v>
+        <v>106.2114454856307</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4664412516213</v>
+        <v>106.2114454856307</v>
       </c>
       <c r="G16" t="n">
-        <v>133.4664412516213</v>
+        <v>106.2114454856307</v>
       </c>
       <c r="H16" t="n">
-        <v>133.4664412516213</v>
+        <v>132.9415536318286</v>
       </c>
       <c r="I16" t="n">
-        <v>172.703454278341</v>
+        <v>132.9415536318286</v>
       </c>
       <c r="J16" t="n">
-        <v>172.703454278341</v>
+        <v>132.9415536318286</v>
       </c>
       <c r="K16" t="n">
-        <v>215.9144383910219</v>
+        <v>132.9415536318286</v>
       </c>
       <c r="L16" t="n">
-        <v>215.9144383910219</v>
+        <v>132.9415536318286</v>
       </c>
       <c r="M16" t="n">
-        <v>215.9144383910219</v>
+        <v>215.9144383910222</v>
       </c>
       <c r="N16" t="n">
-        <v>215.9144383910219</v>
+        <v>215.9144383910222</v>
       </c>
       <c r="O16" t="n">
-        <v>215.9144383910219</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="P16" t="n">
-        <v>298.8873231502154</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="Q16" t="n">
-        <v>298.8873231502154</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="R16" t="n">
-        <v>298.8873231502154</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="S16" t="n">
-        <v>267.553371533007</v>
+        <v>267.5533715330074</v>
       </c>
       <c r="T16" t="n">
-        <v>247.9414709283531</v>
+        <v>247.9414709283534</v>
       </c>
       <c r="U16" t="n">
-        <v>163.2839005179934</v>
+        <v>163.2839005179936</v>
       </c>
       <c r="V16" t="n">
-        <v>122.0854028168787</v>
+        <v>122.0854028168789</v>
       </c>
       <c r="W16" t="n">
-        <v>37.42783240651896</v>
+        <v>37.42783240651909</v>
       </c>
       <c r="X16" t="n">
-        <v>19.65313245914906</v>
+        <v>19.65313245914913</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>222.9398147825191</v>
       </c>
       <c r="C17" t="n">
-        <v>208.3056920527113</v>
+        <v>208.3056920527111</v>
       </c>
       <c r="D17" t="n">
-        <v>206.2304963319442</v>
+        <v>206.2304963319443</v>
       </c>
       <c r="E17" t="n">
-        <v>170.1080759451086</v>
+        <v>170.1080759451087</v>
       </c>
       <c r="F17" t="n">
-        <v>101.944910529609</v>
+        <v>101.9449105296092</v>
       </c>
       <c r="G17" t="n">
-        <v>17.99711912507083</v>
+        <v>17.99711912507084</v>
       </c>
       <c r="H17" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I17" t="n">
-        <v>75.24424225638317</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J17" t="n">
-        <v>75.24424225638317</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K17" t="n">
-        <v>75.24424225638317</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="L17" t="n">
-        <v>123.8622713650248</v>
+        <v>55.3229086851422</v>
       </c>
       <c r="M17" t="n">
-        <v>206.8351561242184</v>
+        <v>138.2957934443358</v>
       </c>
       <c r="N17" t="n">
-        <v>284.3081928873016</v>
+        <v>215.768830207419</v>
       </c>
       <c r="O17" t="n">
-        <v>320.5544258782028</v>
+        <v>252.0150631983203</v>
       </c>
       <c r="P17" t="n">
-        <v>320.5544258782028</v>
+        <v>334.9879479575139</v>
       </c>
       <c r="Q17" t="n">
-        <v>320.5544258782028</v>
+        <v>334.9879479575139</v>
       </c>
       <c r="R17" t="n">
-        <v>320.5544258782028</v>
+        <v>334.9879479575139</v>
       </c>
       <c r="S17" t="n">
-        <v>320.5544258782028</v>
+        <v>334.9879479575139</v>
       </c>
       <c r="T17" t="n">
-        <v>320.5544258782028</v>
+        <v>334.9879479575139</v>
       </c>
       <c r="U17" t="n">
-        <v>320.5544258782028</v>
+        <v>334.9879479575139</v>
       </c>
       <c r="V17" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="W17" t="n">
-        <v>333.0432233229055</v>
+        <v>333.0432233229056</v>
       </c>
       <c r="X17" t="n">
-        <v>308.7351441147871</v>
+        <v>308.7351441147872</v>
       </c>
       <c r="Y17" t="n">
         <v>261.6969102362205</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="C18" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="D18" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="E18" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F18" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G18" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H18" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I18" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J18" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K18" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="L18" t="n">
-        <v>6.70487957650049</v>
+        <v>86.32532454744383</v>
       </c>
       <c r="M18" t="n">
-        <v>89.67776433569405</v>
+        <v>169.2982093066374</v>
       </c>
       <c r="N18" t="n">
-        <v>172.6506490948876</v>
+        <v>169.2982093066374</v>
       </c>
       <c r="O18" t="n">
-        <v>255.6235338540812</v>
+        <v>252.2710940658311</v>
       </c>
       <c r="P18" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="Q18" t="n">
-        <v>329.1428989662297</v>
+        <v>329.1428989662298</v>
       </c>
       <c r="R18" t="n">
-        <v>244.48532855587</v>
+        <v>244.4853285558701</v>
       </c>
       <c r="S18" t="n">
-        <v>244.48532855587</v>
+        <v>244.4853285558701</v>
       </c>
       <c r="T18" t="n">
-        <v>244.48532855587</v>
+        <v>176.02002039722</v>
       </c>
       <c r="U18" t="n">
-        <v>244.48532855587</v>
+        <v>91.36244998686026</v>
       </c>
       <c r="V18" t="n">
-        <v>244.48532855587</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="W18" t="n">
-        <v>244.48532855587</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="X18" t="n">
-        <v>244.48532855587</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="Y18" t="n">
-        <v>228.4051810156956</v>
+        <v>6.704879576500494</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="C19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="D19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="E19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="L19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="M19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="N19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="O19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="P19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="R19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="S19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="T19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="U19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="V19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="W19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="X19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.9398147825189</v>
+        <v>222.9398147825191</v>
       </c>
       <c r="C20" t="n">
-        <v>208.3056920527109</v>
+        <v>208.3056920527112</v>
       </c>
       <c r="D20" t="n">
-        <v>206.2304963319449</v>
+        <v>206.2304963319451</v>
       </c>
       <c r="E20" t="n">
-        <v>170.1080759451093</v>
+        <v>170.1080759451087</v>
       </c>
       <c r="F20" t="n">
-        <v>101.9449105296097</v>
+        <v>101.9449105296091</v>
       </c>
       <c r="G20" t="n">
-        <v>17.99711912507083</v>
+        <v>17.99711912507084</v>
       </c>
       <c r="H20" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I20" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J20" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K20" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="L20" t="n">
-        <v>55.32290868514215</v>
+        <v>55.3229086851422</v>
       </c>
       <c r="M20" t="n">
-        <v>138.2957934443357</v>
+        <v>138.2957934443358</v>
       </c>
       <c r="N20" t="n">
-        <v>215.7688302074189</v>
+        <v>215.768830207419</v>
       </c>
       <c r="O20" t="n">
-        <v>252.0150631983201</v>
+        <v>252.0150631983203</v>
       </c>
       <c r="P20" t="n">
-        <v>252.0150631983201</v>
+        <v>252.0150631983203</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.0150631983201</v>
+        <v>252.0150631983203</v>
       </c>
       <c r="R20" t="n">
-        <v>252.0150631983201</v>
+        <v>252.0150631983203</v>
       </c>
       <c r="S20" t="n">
-        <v>252.0150631983201</v>
+        <v>334.9879479575139</v>
       </c>
       <c r="T20" t="n">
-        <v>334.9879479575137</v>
+        <v>334.9879479575139</v>
       </c>
       <c r="U20" t="n">
-        <v>335.2439788250245</v>
+        <v>334.9879479575139</v>
       </c>
       <c r="V20" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="W20" t="n">
-        <v>333.0432233229054</v>
+        <v>333.0432233229055</v>
       </c>
       <c r="X20" t="n">
-        <v>308.735144114787</v>
+        <v>308.7351441147871</v>
       </c>
       <c r="Y20" t="n">
-        <v>261.6969102362203</v>
+        <v>261.6969102362205</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.09004019497615</v>
+        <v>81.27126759394537</v>
       </c>
       <c r="C21" t="n">
-        <v>59.09004019497615</v>
+        <v>81.27126759394537</v>
       </c>
       <c r="D21" t="n">
-        <v>59.09004019497615</v>
+        <v>81.27126759394537</v>
       </c>
       <c r="E21" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F21" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G21" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H21" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I21" t="n">
-        <v>59.09004019497615</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J21" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K21" t="n">
-        <v>45.70690058228111</v>
+        <v>45.70690058228113</v>
       </c>
       <c r="L21" t="n">
-        <v>45.70690058228111</v>
+        <v>45.70690058228113</v>
       </c>
       <c r="M21" t="n">
-        <v>86.32532454744381</v>
+        <v>86.32532454744383</v>
       </c>
       <c r="N21" t="n">
         <v>169.2982093066374</v>
       </c>
       <c r="O21" t="n">
-        <v>252.2710940658309</v>
+        <v>252.2710940658311</v>
       </c>
       <c r="P21" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="Q21" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="R21" t="n">
-        <v>313.0627514260553</v>
+        <v>250.5864084146649</v>
       </c>
       <c r="S21" t="n">
-        <v>313.0627514260553</v>
+        <v>250.5864084146649</v>
       </c>
       <c r="T21" t="n">
-        <v>313.0627514260553</v>
+        <v>250.5864084146649</v>
       </c>
       <c r="U21" t="n">
-        <v>228.4051810156956</v>
+        <v>165.9288380043051</v>
       </c>
       <c r="V21" t="n">
-        <v>143.7476106053359</v>
+        <v>165.9288380043051</v>
       </c>
       <c r="W21" t="n">
-        <v>59.09004019497615</v>
+        <v>165.9288380043051</v>
       </c>
       <c r="X21" t="n">
-        <v>59.09004019497615</v>
+        <v>165.9288380043051</v>
       </c>
       <c r="Y21" t="n">
-        <v>59.09004019497615</v>
+        <v>81.27126759394537</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="C22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="D22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="E22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="L22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="M22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="N22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="O22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="P22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="R22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="S22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="T22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="U22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="V22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="W22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="X22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>222.9398147825189</v>
       </c>
       <c r="C23" t="n">
-        <v>208.305692052711</v>
+        <v>208.3056920527108</v>
       </c>
       <c r="D23" t="n">
-        <v>206.2304963319449</v>
+        <v>206.230496331945</v>
       </c>
       <c r="E23" t="n">
-        <v>170.1080759451093</v>
+        <v>170.1080759451092</v>
       </c>
       <c r="F23" t="n">
-        <v>101.9449105296097</v>
+        <v>101.9449105296096</v>
       </c>
       <c r="G23" t="n">
-        <v>17.99711912507083</v>
+        <v>17.99711912507084</v>
       </c>
       <c r="H23" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I23" t="n">
-        <v>6.960910444011333</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J23" t="n">
-        <v>6.960910444011333</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K23" t="n">
-        <v>6.960910444011333</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="L23" t="n">
-        <v>55.578939552653</v>
+        <v>55.3229086851422</v>
       </c>
       <c r="M23" t="n">
-        <v>138.5518243118466</v>
+        <v>138.2957934443358</v>
       </c>
       <c r="N23" t="n">
-        <v>216.0248610749297</v>
+        <v>215.768830207419</v>
       </c>
       <c r="O23" t="n">
-        <v>252.2710940658309</v>
+        <v>252.2710940658311</v>
       </c>
       <c r="P23" t="n">
-        <v>252.2710940658309</v>
+        <v>252.2710940658311</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.2710940658309</v>
+        <v>252.2710940658311</v>
       </c>
       <c r="R23" t="n">
-        <v>252.2710940658309</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="S23" t="n">
-        <v>252.2710940658309</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="T23" t="n">
-        <v>252.2710940658309</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="U23" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="V23" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="W23" t="n">
-        <v>333.0432233229054</v>
+        <v>333.0432233229053</v>
       </c>
       <c r="X23" t="n">
         <v>308.735144114787</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="C24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="D24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="E24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K24" t="n">
-        <v>6.70487957650049</v>
+        <v>45.70690058228113</v>
       </c>
       <c r="L24" t="n">
-        <v>89.67776433569405</v>
+        <v>45.70690058228113</v>
       </c>
       <c r="M24" t="n">
-        <v>172.6506490948876</v>
+        <v>128.6797853414747</v>
       </c>
       <c r="N24" t="n">
-        <v>252.2710940658309</v>
+        <v>211.6526701006683</v>
       </c>
       <c r="O24" t="n">
-        <v>335.2439788250245</v>
+        <v>252.2710940658311</v>
       </c>
       <c r="P24" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="Q24" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250247</v>
       </c>
       <c r="R24" t="n">
-        <v>335.2439788250245</v>
+        <v>250.5864084146649</v>
       </c>
       <c r="S24" t="n">
-        <v>260.6775908075796</v>
+        <v>165.9288380043051</v>
       </c>
       <c r="T24" t="n">
-        <v>176.0200203972199</v>
+        <v>81.27126759394537</v>
       </c>
       <c r="U24" t="n">
-        <v>176.0200203972199</v>
+        <v>81.27126759394537</v>
       </c>
       <c r="V24" t="n">
-        <v>91.36244998686021</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="W24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="X24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="C25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="D25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="E25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="F25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="G25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="H25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="I25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="J25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="K25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="L25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="M25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="N25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="O25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="P25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="R25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="S25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="T25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="U25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="V25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="W25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="X25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500494</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.008801653035</v>
+        <v>1025.008801653036</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2582049790292</v>
+        <v>886.2582049790299</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0665353140653</v>
+        <v>760.066535314066</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8276409830318</v>
+        <v>599.8276409830323</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5480016233342</v>
+        <v>407.5480016233348</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4837362745981</v>
+        <v>199.483736274598</v>
       </c>
       <c r="H26" t="n">
         <v>64.07502278182983</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8165816897312</v>
+        <v>171.8165816897311</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3999075957677</v>
+        <v>377.3999075957673</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7319193115832</v>
+        <v>636.7319193115828</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4187866779505</v>
+        <v>930.4187866779503</v>
       </c>
       <c r="N26" t="n">
         <v>1218.605806048207</v>
@@ -6245,7 +6245,7 @@
         <v>1663.067752909548</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.265373616013</v>
+        <v>1786.265373616014</v>
       </c>
       <c r="R26" t="n">
         <v>1804.801813148968</v>
@@ -6257,7 +6257,7 @@
         <v>1780.591528408188</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.907525043281</v>
+        <v>1742.907525043282</v>
       </c>
       <c r="V26" t="n">
         <v>1633.778861472333</v>
@@ -6266,7 +6266,7 @@
         <v>1507.461632026016</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.037078873699</v>
+        <v>1359.0370788737</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.882371050935</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.5237525457352</v>
+        <v>142.0816917629102</v>
       </c>
       <c r="C27" t="n">
-        <v>196.5237525457352</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D27" t="n">
-        <v>196.5237525457352</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E27" t="n">
-        <v>196.5237525457352</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K27" t="n">
-        <v>75.09805726875997</v>
+        <v>75.09805726875999</v>
       </c>
       <c r="L27" t="n">
-        <v>193.8276299939782</v>
+        <v>193.8276299939783</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1341054696064</v>
+        <v>377.1341054696065</v>
       </c>
       <c r="N27" t="n">
-        <v>583.7120474725132</v>
+        <v>583.7120474725133</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9434237680045</v>
+        <v>716.9434237680048</v>
       </c>
       <c r="P27" t="n">
-        <v>801.796847384642</v>
+        <v>801.7968473846422</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.796847384642</v>
+        <v>795.6957675258474</v>
       </c>
       <c r="R27" t="n">
-        <v>714.4647047411187</v>
+        <v>660.0226439582937</v>
       </c>
       <c r="S27" t="n">
-        <v>714.4647047411187</v>
+        <v>660.0226439582937</v>
       </c>
       <c r="T27" t="n">
-        <v>712.341141237244</v>
+        <v>657.8990804544189</v>
       </c>
       <c r="U27" t="n">
-        <v>687.7095903657724</v>
+        <v>633.2675295829474</v>
       </c>
       <c r="V27" t="n">
-        <v>659.622202243056</v>
+        <v>605.180141460231</v>
       </c>
       <c r="W27" t="n">
-        <v>605.2159629469968</v>
+        <v>335.7815721905223</v>
       </c>
       <c r="X27" t="n">
-        <v>600.7002985373426</v>
+        <v>331.2659077808681</v>
       </c>
       <c r="Y27" t="n">
-        <v>375.0596054726703</v>
+        <v>320.6175446898453</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G28" t="n">
-        <v>79.8016444182725</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H28" t="n">
-        <v>79.8016444182725</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I28" t="n">
-        <v>79.8016444182725</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J28" t="n">
-        <v>79.8016444182725</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K28" t="n">
-        <v>224.7824833993143</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="L28" t="n">
-        <v>224.7824833993143</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="M28" t="n">
-        <v>270.7639779274415</v>
+        <v>117.291582534174</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7639779274415</v>
+        <v>117.291582534174</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7639779274415</v>
+        <v>117.291582534174</v>
       </c>
       <c r="P28" t="n">
         <v>270.7639779274415</v>
@@ -6418,16 +6418,16 @@
         <v>160.4504037382767</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8578698892494</v>
+        <v>127.8578698892495</v>
       </c>
       <c r="W28" t="n">
-        <v>49.60706138882281</v>
+        <v>49.60706138882282</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43832529354042</v>
+        <v>40.43832529354043</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.008801653035</v>
+        <v>1025.008801653036</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2582049790287</v>
+        <v>886.2582049790296</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0665353140646</v>
+        <v>760.0665353140656</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8276409830311</v>
+        <v>599.8276409830321</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5480016233334</v>
+        <v>407.5480016233346</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4837362745982</v>
+        <v>199.4837362745984</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07502278182989</v>
+        <v>64.07502278182984</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J29" t="n">
-        <v>171.816581689731</v>
+        <v>171.8165816897311</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3999075957674</v>
+        <v>377.3999075957676</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7319193115829</v>
+        <v>636.7319193115828</v>
       </c>
       <c r="M29" t="n">
         <v>930.4187866779503</v>
@@ -6479,7 +6479,7 @@
         <v>1465.566021646282</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.067752909547</v>
+        <v>1663.067752909548</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.265373616014</v>
@@ -6488,25 +6488,25 @@
         <v>1804.801813148968</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.25851441366</v>
+        <v>1790.258514413661</v>
       </c>
       <c r="T29" t="n">
         <v>1780.591528408188</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.907525043281</v>
+        <v>1742.907525043282</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.778861472332</v>
+        <v>1633.778861472333</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.461632026015</v>
+        <v>1507.461632026016</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.037078873699</v>
+        <v>1359.0370788737</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.882371050934</v>
+        <v>1187.882371050935</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>667.7211561083177</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C30" t="n">
-        <v>478.3088818412814</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D30" t="n">
-        <v>478.3088818412814</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E30" t="n">
-        <v>304.7456779626958</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F30" t="n">
-        <v>144.3179616799399</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G30" t="n">
-        <v>144.3179616799399</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H30" t="n">
-        <v>144.3179616799399</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K30" t="n">
-        <v>75.09805726875997</v>
+        <v>75.09805726875999</v>
       </c>
       <c r="L30" t="n">
-        <v>193.8276299939782</v>
+        <v>193.8276299939783</v>
       </c>
       <c r="M30" t="n">
-        <v>377.1341054696064</v>
+        <v>377.1341054696065</v>
       </c>
       <c r="N30" t="n">
-        <v>583.7120474725132</v>
+        <v>583.7120474725133</v>
       </c>
       <c r="O30" t="n">
-        <v>716.9434237680045</v>
+        <v>716.9434237680048</v>
       </c>
       <c r="P30" t="n">
-        <v>801.796847384642</v>
+        <v>801.7968473846422</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.796847384642</v>
+        <v>801.7968473846422</v>
       </c>
       <c r="R30" t="n">
-        <v>801.796847384642</v>
+        <v>666.1237238170886</v>
       </c>
       <c r="S30" t="n">
-        <v>801.796847384642</v>
+        <v>666.1237238170886</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6732838807671</v>
+        <v>664.0001603132139</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0417330092955</v>
+        <v>639.3686094417424</v>
       </c>
       <c r="V30" t="n">
-        <v>737.2914229050542</v>
+        <v>396.2888913453764</v>
       </c>
       <c r="W30" t="n">
-        <v>682.8851836089949</v>
+        <v>341.8826520493172</v>
       </c>
       <c r="X30" t="n">
-        <v>678.3695191993406</v>
+        <v>261.7367293276517</v>
       </c>
       <c r="Y30" t="n">
-        <v>667.7211561083177</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="M31" t="n">
-        <v>222.6906564381796</v>
+        <v>185.5432441589713</v>
       </c>
       <c r="N31" t="n">
-        <v>270.7639779274419</v>
+        <v>185.5432441589713</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7639779274419</v>
+        <v>185.5432441589713</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7639779274419</v>
+        <v>185.5432441589713</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7639779274419</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7639779274419</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="S31" t="n">
-        <v>248.035990162321</v>
+        <v>248.0359901623206</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0300534097545</v>
+        <v>237.0300534097543</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4504037382769</v>
+        <v>160.4504037382767</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8578698892496</v>
+        <v>127.8578698892495</v>
       </c>
       <c r="W31" t="n">
-        <v>49.60706138882293</v>
+        <v>49.60706138882282</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43832529354048</v>
+        <v>40.43832529354043</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>1025.008801653036</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2582049790296</v>
+        <v>886.2582049790301</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0665353140657</v>
+        <v>760.0665353140661</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8276409830322</v>
+        <v>599.8276409830326</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5480016233348</v>
+        <v>407.548001623335</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4837362745981</v>
+        <v>199.4837362745989</v>
       </c>
       <c r="H32" t="n">
-        <v>64.0750227818298</v>
+        <v>64.07502278182986</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8165816897311</v>
+        <v>171.816581689731</v>
       </c>
       <c r="K32" t="n">
         <v>377.3999075957676</v>
@@ -6707,7 +6707,7 @@
         <v>636.7319193115832</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4187866779505</v>
+        <v>930.4187866779506</v>
       </c>
       <c r="N32" t="n">
         <v>1218.605806048208</v>
@@ -6719,7 +6719,7 @@
         <v>1663.067752909548</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.265373616013</v>
+        <v>1786.265373616014</v>
       </c>
       <c r="R32" t="n">
         <v>1804.801813148968</v>
@@ -6731,13 +6731,13 @@
         <v>1780.591528408188</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.907525043281</v>
+        <v>1742.907525043282</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.778861472333</v>
+        <v>1633.778861472334</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.461632026016</v>
+        <v>1507.461632026017</v>
       </c>
       <c r="X32" t="n">
         <v>1359.0370788737</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.3840780898431</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C33" t="n">
-        <v>487.9718038228068</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D33" t="n">
-        <v>487.9718038228068</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E33" t="n">
-        <v>314.4085999442212</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F33" t="n">
-        <v>153.9808836614653</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G33" t="n">
-        <v>153.9808836614653</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H33" t="n">
-        <v>153.9808836614653</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I33" t="n">
-        <v>45.75895824450477</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K33" t="n">
-        <v>75.09805726875997</v>
+        <v>75.09805726875999</v>
       </c>
       <c r="L33" t="n">
-        <v>193.8276299939782</v>
+        <v>193.8276299939783</v>
       </c>
       <c r="M33" t="n">
-        <v>377.1341054696064</v>
+        <v>377.1341054696065</v>
       </c>
       <c r="N33" t="n">
-        <v>583.7120474725132</v>
+        <v>583.7120474725133</v>
       </c>
       <c r="O33" t="n">
-        <v>716.9434237680045</v>
+        <v>716.9434237680048</v>
       </c>
       <c r="P33" t="n">
-        <v>801.796847384642</v>
+        <v>801.7968473846422</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.796847384642</v>
+        <v>801.7968473846422</v>
       </c>
       <c r="R33" t="n">
-        <v>801.796847384642</v>
+        <v>801.7968473846422</v>
       </c>
       <c r="S33" t="n">
-        <v>801.796847384642</v>
+        <v>801.7968473846422</v>
       </c>
       <c r="T33" t="n">
-        <v>799.6732838807673</v>
+        <v>799.6732838807675</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0417330092957</v>
+        <v>563.738351129731</v>
       </c>
       <c r="V33" t="n">
-        <v>746.9543448865793</v>
+        <v>320.6586330333651</v>
       </c>
       <c r="W33" t="n">
-        <v>692.5481055905201</v>
+        <v>51.26006376365643</v>
       </c>
       <c r="X33" t="n">
-        <v>688.0324411808659</v>
+        <v>46.74439935400224</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.3840780898431</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="L34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="M34" t="n">
-        <v>185.5432441589711</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="N34" t="n">
-        <v>185.5432441589711</v>
+        <v>86.83105553634113</v>
       </c>
       <c r="O34" t="n">
-        <v>185.5432441589711</v>
+        <v>261.2031802934612</v>
       </c>
       <c r="P34" t="n">
-        <v>185.5432441589711</v>
+        <v>261.2031802934612</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7639779274414</v>
+        <v>261.2031802934612</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7639779274414</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0359901623205</v>
+        <v>248.0359901623206</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0300534097541</v>
+        <v>237.0300534097543</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4504037382765</v>
+        <v>160.4504037382767</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8578698892494</v>
+        <v>127.8578698892495</v>
       </c>
       <c r="W34" t="n">
-        <v>49.60706138882276</v>
+        <v>49.60706138882282</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43832529354039</v>
+        <v>40.43832529354043</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09603626297935</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="35">
@@ -6941,22 +6941,22 @@
         <v>416.5831312652733</v>
       </c>
       <c r="L35" t="n">
-        <v>698.859194604092</v>
+        <v>465.2011603739151</v>
       </c>
       <c r="M35" t="n">
-        <v>1015.490113593462</v>
+        <v>781.8320793632856</v>
       </c>
       <c r="N35" t="n">
-        <v>1326.621184586722</v>
+        <v>859.3051161263688</v>
       </c>
       <c r="O35" t="n">
-        <v>1362.867417577624</v>
+        <v>1061.489887952249</v>
       </c>
       <c r="P35" t="n">
-        <v>1469.557834323943</v>
+        <v>1281.935670838517</v>
       </c>
       <c r="Q35" t="n">
-        <v>1469.557834323943</v>
+        <v>1428.077343167986</v>
       </c>
       <c r="R35" t="n">
         <v>1469.557834323943</v>
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.39115668647887</v>
+        <v>212.0033523809635</v>
       </c>
       <c r="C36" t="n">
         <v>29.39115668647887</v>
@@ -7017,7 +7017,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="K36" t="n">
-        <v>68.39317769225948</v>
+        <v>68.3931776922595</v>
       </c>
       <c r="L36" t="n">
         <v>187.1227504174778</v>
@@ -7026,40 +7026,40 @@
         <v>370.429225893106</v>
       </c>
       <c r="N36" t="n">
-        <v>577.0071678960127</v>
+        <v>577.0071678960128</v>
       </c>
       <c r="O36" t="n">
-        <v>710.2385441915042</v>
+        <v>710.2385441915043</v>
       </c>
       <c r="P36" t="n">
-        <v>795.0919678081416</v>
+        <v>795.0919678081417</v>
       </c>
       <c r="Q36" t="n">
-        <v>795.0919678081416</v>
+        <v>795.0919678081417</v>
       </c>
       <c r="R36" t="n">
-        <v>795.0919678081416</v>
+        <v>659.418844240588</v>
       </c>
       <c r="S36" t="n">
-        <v>795.0919678081416</v>
+        <v>466.0146977238709</v>
       </c>
       <c r="T36" t="n">
-        <v>795.0919678081416</v>
+        <v>248.8988042463467</v>
       </c>
       <c r="U36" t="n">
-        <v>761.3774384358571</v>
+        <v>247.6771621831632</v>
       </c>
       <c r="V36" t="n">
-        <v>518.2977203394912</v>
+        <v>242.9996828687347</v>
       </c>
       <c r="W36" t="n">
-        <v>248.8991510697825</v>
+        <v>212.0033523809635</v>
       </c>
       <c r="X36" t="n">
-        <v>29.39115668647887</v>
+        <v>212.0033523809635</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.39115668647887</v>
+        <v>212.0033523809635</v>
       </c>
     </row>
     <row r="37">
@@ -7078,49 +7078,49 @@
         <v>29.39115668647887</v>
       </c>
       <c r="E37" t="n">
-        <v>29.39115668647887</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="F37" t="n">
-        <v>29.39115668647887</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="G37" t="n">
-        <v>29.39115668647887</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="H37" t="n">
-        <v>29.39115668647887</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="I37" t="n">
-        <v>29.39115668647887</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="J37" t="n">
-        <v>29.39115668647887</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="K37" t="n">
-        <v>29.39115668647887</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="L37" t="n">
-        <v>29.39115668647887</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="M37" t="n">
-        <v>38.41963689107295</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="N37" t="n">
-        <v>38.41963689107295</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="O37" t="n">
-        <v>38.41963689107295</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="P37" t="n">
-        <v>38.41963689107295</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.5844222825463</v>
+        <v>101.9224400137501</v>
       </c>
       <c r="R37" t="n">
-        <v>146.5844222825463</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="S37" t="n">
-        <v>146.5844222825463</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="T37" t="n">
         <v>146.5844222825463</v>
@@ -7163,7 +7163,7 @@
         <v>330.6133956219696</v>
       </c>
       <c r="G38" t="n">
-        <v>145.9590390815217</v>
+        <v>145.9590390815215</v>
       </c>
       <c r="H38" t="n">
         <v>33.96023439704133</v>
@@ -7175,19 +7175,19 @@
         <v>188.0557537362337</v>
       </c>
       <c r="K38" t="n">
-        <v>188.0557537362337</v>
+        <v>416.5831312652733</v>
       </c>
       <c r="L38" t="n">
-        <v>236.6737828448753</v>
+        <v>595.7678446934177</v>
       </c>
       <c r="M38" t="n">
-        <v>553.3047018342459</v>
+        <v>678.7407294526113</v>
       </c>
       <c r="N38" t="n">
-        <v>769.4260175596029</v>
+        <v>989.8718004458714</v>
       </c>
       <c r="O38" t="n">
-        <v>1039.330284780681</v>
+        <v>1259.77606766695</v>
       </c>
       <c r="P38" t="n">
         <v>1259.77606766695</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>758.1965159427585</v>
+        <v>58.1750650425646</v>
       </c>
       <c r="C39" t="n">
-        <v>758.1965159427585</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D39" t="n">
-        <v>597.4163997037903</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E39" t="n">
-        <v>423.8531958252047</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F39" t="n">
-        <v>263.4254795424488</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G39" t="n">
-        <v>113.1849673411353</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H39" t="n">
         <v>29.39115668647887</v>
@@ -7254,7 +7254,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="K39" t="n">
-        <v>68.39317769225948</v>
+        <v>68.39317769225951</v>
       </c>
       <c r="L39" t="n">
         <v>187.1227504174778</v>
@@ -7263,40 +7263,40 @@
         <v>370.429225893106</v>
       </c>
       <c r="N39" t="n">
-        <v>577.0071678960127</v>
+        <v>577.0071678960128</v>
       </c>
       <c r="O39" t="n">
-        <v>710.2385441915042</v>
+        <v>710.2385441915043</v>
       </c>
       <c r="P39" t="n">
-        <v>795.0919678081416</v>
+        <v>795.0919678081417</v>
       </c>
       <c r="Q39" t="n">
-        <v>795.0919678081416</v>
+        <v>788.9908879493469</v>
       </c>
       <c r="R39" t="n">
-        <v>795.0919678081416</v>
+        <v>788.9908879493469</v>
       </c>
       <c r="S39" t="n">
-        <v>795.0919678081416</v>
+        <v>788.9908879493469</v>
       </c>
       <c r="T39" t="n">
-        <v>795.0919678081416</v>
+        <v>571.8749944718227</v>
       </c>
       <c r="U39" t="n">
-        <v>793.8703257449581</v>
+        <v>332.2511136267017</v>
       </c>
       <c r="V39" t="n">
-        <v>789.1928464305297</v>
+        <v>327.5736343122733</v>
       </c>
       <c r="W39" t="n">
-        <v>758.1965159427585</v>
+        <v>58.1750650425646</v>
       </c>
       <c r="X39" t="n">
-        <v>758.1965159427585</v>
+        <v>58.1750650425646</v>
       </c>
       <c r="Y39" t="n">
-        <v>758.1965159427585</v>
+        <v>58.1750650425646</v>
       </c>
     </row>
     <row r="40">
@@ -7321,31 +7321,31 @@
         <v>29.39115668647887</v>
       </c>
       <c r="G40" t="n">
-        <v>96.04081646477511</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H40" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I40" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J40" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K40" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="L40" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="M40" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="N40" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="O40" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="P40" t="n">
         <v>146.5844222825463</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>854.4345604185189</v>
+        <v>854.4345604185187</v>
       </c>
       <c r="C41" t="n">
-        <v>739.0938725528007</v>
+        <v>739.0938725528006</v>
       </c>
       <c r="D41" t="n">
-        <v>636.3121116961247</v>
+        <v>636.3121116961246</v>
       </c>
       <c r="E41" t="n">
-        <v>499.4831261733792</v>
+        <v>499.4831261733791</v>
       </c>
       <c r="F41" t="n">
-        <v>330.6133956219697</v>
+        <v>330.6133956219696</v>
       </c>
       <c r="G41" t="n">
-        <v>145.9590390815216</v>
+        <v>145.9590390815215</v>
       </c>
       <c r="H41" t="n">
         <v>33.96023439704133</v>
@@ -7412,31 +7412,31 @@
         <v>29.39115668647887</v>
       </c>
       <c r="K41" t="n">
-        <v>156.6860927958559</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9621561346745</v>
+        <v>311.6672200252975</v>
       </c>
       <c r="M41" t="n">
-        <v>521.9350408938681</v>
+        <v>628.2981390146681</v>
       </c>
       <c r="N41" t="n">
-        <v>833.0661118871282</v>
+        <v>819.5966732480885</v>
       </c>
       <c r="O41" t="n">
-        <v>1102.970379108206</v>
+        <v>1089.500940469167</v>
       </c>
       <c r="P41" t="n">
-        <v>1323.416161994475</v>
+        <v>1309.946723355435</v>
       </c>
       <c r="Q41" t="n">
-        <v>1469.557834323944</v>
+        <v>1456.088395684904</v>
       </c>
       <c r="R41" t="n">
-        <v>1469.557834323944</v>
+        <v>1456.088395684904</v>
       </c>
       <c r="S41" t="n">
-        <v>1469.557834323944</v>
+        <v>1456.088395684904</v>
       </c>
       <c r="T41" t="n">
         <v>1469.557834323944</v>
@@ -7454,7 +7454,7 @@
         <v>1141.643020022607</v>
       </c>
       <c r="Y41" t="n">
-        <v>993.8982210081305</v>
+        <v>993.89822100813</v>
       </c>
     </row>
     <row r="42">
@@ -7491,7 +7491,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="K42" t="n">
-        <v>68.39317769225948</v>
+        <v>68.39317769225951</v>
       </c>
       <c r="L42" t="n">
         <v>187.1227504174778</v>
@@ -7500,40 +7500,40 @@
         <v>370.429225893106</v>
       </c>
       <c r="N42" t="n">
-        <v>577.0071678960127</v>
+        <v>577.0071678960128</v>
       </c>
       <c r="O42" t="n">
-        <v>710.2385441915042</v>
+        <v>710.2385441915043</v>
       </c>
       <c r="P42" t="n">
-        <v>795.0919678081416</v>
+        <v>795.0919678081417</v>
       </c>
       <c r="Q42" t="n">
-        <v>795.0919678081416</v>
+        <v>788.9908879493469</v>
       </c>
       <c r="R42" t="n">
-        <v>795.0919678081416</v>
+        <v>653.3177643817933</v>
       </c>
       <c r="S42" t="n">
-        <v>795.0919678081416</v>
+        <v>543.091086115737</v>
       </c>
       <c r="T42" t="n">
-        <v>795.0919678081416</v>
+        <v>543.091086115737</v>
       </c>
       <c r="U42" t="n">
-        <v>793.8703257449581</v>
+        <v>541.8694440525535</v>
       </c>
       <c r="V42" t="n">
-        <v>789.1928464305297</v>
+        <v>298.7897259561876</v>
       </c>
       <c r="W42" t="n">
-        <v>519.794277160821</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="X42" t="n">
-        <v>300.2862827775174</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="Y42" t="n">
-        <v>207.927009613414</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="43">
@@ -7573,16 +7573,16 @@
         <v>29.39115668647887</v>
       </c>
       <c r="L43" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="M43" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="N43" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="O43" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="P43" t="n">
         <v>146.5844222825463</v>
@@ -7646,34 +7646,34 @@
         <v>29.39115668647887</v>
       </c>
       <c r="J44" t="n">
-        <v>93.04599846833059</v>
+        <v>188.0557537362337</v>
       </c>
       <c r="K44" t="n">
-        <v>93.04599846833059</v>
+        <v>416.5831312652733</v>
       </c>
       <c r="L44" t="n">
-        <v>375.3220618071492</v>
+        <v>698.859194604092</v>
       </c>
       <c r="M44" t="n">
-        <v>691.9529807965197</v>
+        <v>1015.490113593462</v>
       </c>
       <c r="N44" t="n">
-        <v>1003.08405178978</v>
+        <v>1092.963150356546</v>
       </c>
       <c r="O44" t="n">
-        <v>1039.330284780681</v>
+        <v>1273.245506305989</v>
       </c>
       <c r="P44" t="n">
-        <v>1259.77606766695</v>
+        <v>1273.245506305989</v>
       </c>
       <c r="Q44" t="n">
-        <v>1405.917739996418</v>
+        <v>1419.387178635458</v>
       </c>
       <c r="R44" t="n">
-        <v>1447.398231152376</v>
+        <v>1460.867669791415</v>
       </c>
       <c r="S44" t="n">
-        <v>1456.088395684904</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="T44" t="n">
         <v>1469.557834323944</v>
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>218.8034309535151</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C45" t="n">
         <v>29.39115668647887</v>
@@ -7728,7 +7728,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="K45" t="n">
-        <v>68.39317769225948</v>
+        <v>68.39317769225951</v>
       </c>
       <c r="L45" t="n">
         <v>187.1227504174778</v>
@@ -7737,40 +7737,40 @@
         <v>370.429225893106</v>
       </c>
       <c r="N45" t="n">
-        <v>577.0071678960127</v>
+        <v>577.0071678960128</v>
       </c>
       <c r="O45" t="n">
-        <v>710.2385441915042</v>
+        <v>710.2385441915043</v>
       </c>
       <c r="P45" t="n">
-        <v>795.0919678081416</v>
+        <v>795.0919678081417</v>
       </c>
       <c r="Q45" t="n">
-        <v>795.0919678081416</v>
+        <v>788.9908879493469</v>
       </c>
       <c r="R45" t="n">
-        <v>795.0919678081416</v>
+        <v>788.9908879493469</v>
       </c>
       <c r="S45" t="n">
-        <v>795.0919678081416</v>
+        <v>595.5867414326298</v>
       </c>
       <c r="T45" t="n">
-        <v>795.0919678081416</v>
+        <v>595.5867414326298</v>
       </c>
       <c r="U45" t="n">
-        <v>793.8703257449581</v>
+        <v>469.241512480286</v>
       </c>
       <c r="V45" t="n">
-        <v>550.7906076485922</v>
+        <v>464.5640331658576</v>
       </c>
       <c r="W45" t="n">
-        <v>519.794277160821</v>
+        <v>433.5677026780863</v>
       </c>
       <c r="X45" t="n">
-        <v>444.4441240181875</v>
+        <v>433.5677026780863</v>
       </c>
       <c r="Y45" t="n">
-        <v>218.8034309535151</v>
+        <v>207.927009613414</v>
       </c>
     </row>
     <row r="46">
@@ -7792,46 +7792,46 @@
         <v>29.39115668647887</v>
       </c>
       <c r="F46" t="n">
-        <v>29.39115668647887</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="G46" t="n">
-        <v>29.39115668647887</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="H46" t="n">
-        <v>29.39115668647887</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="I46" t="n">
-        <v>29.39115668647887</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="J46" t="n">
-        <v>29.39115668647887</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="K46" t="n">
-        <v>29.39115668647887</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="L46" t="n">
-        <v>29.39115668647887</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="M46" t="n">
-        <v>29.39115668647887</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="N46" t="n">
-        <v>29.39115668647887</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="O46" t="n">
-        <v>29.39115668647887</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="P46" t="n">
-        <v>114.0795730255629</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.0795730255629</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="R46" t="n">
-        <v>146.5844222825463</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="S46" t="n">
-        <v>146.5844222825463</v>
+        <v>134.4272892707335</v>
       </c>
       <c r="T46" t="n">
         <v>146.5844222825463</v>
@@ -8769,13 +8769,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>131.9774927702311</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3756824180372</v>
+        <v>200.8003743078789</v>
       </c>
       <c r="M12" t="n">
-        <v>157.6475363499338</v>
+        <v>200.429819980268</v>
       </c>
       <c r="N12" t="n">
         <v>185.7602653991549</v>
@@ -8784,7 +8784,7 @@
         <v>204.4566298243532</v>
       </c>
       <c r="P12" t="n">
-        <v>204.464339879241</v>
+        <v>120.6533451729849</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,19 +9009,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>161.4043934939592</v>
+        <v>161.4043934939591</v>
       </c>
       <c r="M15" t="n">
         <v>200.429819980268</v>
       </c>
       <c r="N15" t="n">
-        <v>185.7602653991549</v>
+        <v>101.9492706928987</v>
       </c>
       <c r="O15" t="n">
         <v>204.4566298243532</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6533451729849</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9774927702312</v>
+        <v>131.9774927702311</v>
       </c>
       <c r="L18" t="n">
-        <v>120.3756824180372</v>
+        <v>200.8003743078789</v>
       </c>
       <c r="M18" t="n">
         <v>200.429819980268</v>
       </c>
       <c r="N18" t="n">
-        <v>185.7602653991548</v>
+        <v>101.9492706928987</v>
       </c>
       <c r="O18" t="n">
         <v>204.4566298243532</v>
       </c>
       <c r="P18" t="n">
-        <v>201.0780370628266</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>204.1866771242933</v>
+        <v>120.3756824180372</v>
       </c>
       <c r="M24" t="n">
         <v>200.429819980268</v>
       </c>
       <c r="N24" t="n">
-        <v>182.3739625827404</v>
+        <v>185.7602653991549</v>
       </c>
       <c r="O24" t="n">
-        <v>204.4566298243532</v>
+        <v>161.674346194019</v>
       </c>
       <c r="P24" t="n">
-        <v>120.6533451729849</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.95374321123093</v>
+        <v>169.7647379174871</v>
       </c>
       <c r="C11" t="n">
-        <v>145.8829949208325</v>
+        <v>140.8071082899075</v>
       </c>
       <c r="D11" t="n">
         <v>133.449657181881</v>
@@ -23270,13 +23270,13 @@
         <v>198.8767471796672</v>
       </c>
       <c r="G11" t="n">
-        <v>130.6925322025593</v>
+        <v>214.5035269088154</v>
       </c>
       <c r="H11" t="n">
         <v>142.5745305714073</v>
       </c>
       <c r="I11" t="n">
-        <v>36.21910086722868</v>
+        <v>36.21910086722867</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>18.09022035898437</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.5572811488057</v>
+        <v>32.74628644254958</v>
       </c>
       <c r="W11" t="n">
         <v>133.5739613654206</v>
       </c>
       <c r="X11" t="n">
-        <v>84.66355085616281</v>
+        <v>71.64921712810369</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.9630649581036</v>
+        <v>94.15207025184745</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5227626820733858</v>
+        <v>0.5227626820733432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.177209922732928</v>
+        <v>2.177209922732885</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.95374321123087</v>
+        <v>85.95374321123089</v>
       </c>
       <c r="C14" t="n">
         <v>145.8829949208325</v>
@@ -23501,19 +23501,19 @@
         <v>133.449657181881</v>
       </c>
       <c r="E14" t="n">
-        <v>152.4725562927687</v>
+        <v>167.1564096012899</v>
       </c>
       <c r="F14" t="n">
-        <v>115.065752473411</v>
+        <v>198.8767471796672</v>
       </c>
       <c r="G14" t="n">
         <v>214.5035269088154</v>
       </c>
       <c r="H14" t="n">
-        <v>142.5745305714072</v>
+        <v>58.76353586515111</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.21910086722866</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.09022035898431</v>
+        <v>18.09022035898437</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82706754482447</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>116.5572811488057</v>
+        <v>32.74628644254958</v>
       </c>
       <c r="W14" t="n">
         <v>133.5739613654206</v>
       </c>
       <c r="X14" t="n">
-        <v>155.4602118343598</v>
+        <v>150.3843252034348</v>
       </c>
       <c r="Y14" t="n">
-        <v>94.15207025184743</v>
+        <v>177.9630649581036</v>
       </c>
     </row>
     <row r="15">
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.522762682073329</v>
+        <v>0.5227626820733432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.055256388636702e-12</v>
+        <v>-7.358558207215538e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.058708676282549e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>910421.3111713382</v>
+        <v>910421.3111713381</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>617352.396623522</v>
+      </c>
+      <c r="C2" t="n">
         <v>617352.3966235219</v>
       </c>
-      <c r="C2" t="n">
-        <v>617352.396623522</v>
-      </c>
       <c r="D2" t="n">
-        <v>617352.3966235222</v>
+        <v>617352.3966235219</v>
       </c>
       <c r="E2" t="n">
         <v>531993.0623143351</v>
       </c>
       <c r="F2" t="n">
-        <v>531993.0623143351</v>
+        <v>531993.0623143353</v>
       </c>
       <c r="G2" t="n">
-        <v>618602.9842009755</v>
+        <v>618602.9842009753</v>
       </c>
       <c r="H2" t="n">
-        <v>618602.9842009754</v>
+        <v>618602.9842009753</v>
       </c>
       <c r="I2" t="n">
         <v>618602.9842009753</v>
       </c>
       <c r="J2" t="n">
-        <v>618602.9842009759</v>
+        <v>618602.9842009757</v>
       </c>
       <c r="K2" t="n">
         <v>618602.984200976</v>
       </c>
       <c r="L2" t="n">
-        <v>618602.984200976</v>
+        <v>618602.9842009756</v>
       </c>
       <c r="M2" t="n">
-        <v>618602.984200975</v>
+        <v>618602.9842009749</v>
       </c>
       <c r="N2" t="n">
         <v>618602.9842009753</v>
       </c>
       <c r="O2" t="n">
-        <v>618602.9842009753</v>
+        <v>618602.9842009754</v>
       </c>
       <c r="P2" t="n">
-        <v>618602.9842009753</v>
+        <v>618602.9842009749</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>272190.369236591</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>105116.1707346581</v>
@@ -26396,7 +26396,7 @@
         <v>105116.1707346581</v>
       </c>
       <c r="M3" t="n">
-        <v>18540.64777616409</v>
+        <v>18540.64777616411</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>388252.7260600599</v>
       </c>
       <c r="F4" t="n">
-        <v>388252.72606006</v>
+        <v>388252.7260600599</v>
       </c>
       <c r="G4" t="n">
         <v>458781.7794468557</v>
@@ -26445,16 +26445,16 @@
         <v>459727.7067886267</v>
       </c>
       <c r="L4" t="n">
-        <v>459727.7067886268</v>
+        <v>459727.7067886267</v>
       </c>
       <c r="M4" t="n">
-        <v>459351.4258455442</v>
+        <v>459351.4258455441</v>
       </c>
       <c r="N4" t="n">
-        <v>459351.4258455442</v>
+        <v>459351.4258455441</v>
       </c>
       <c r="O4" t="n">
-        <v>459351.4258455442</v>
+        <v>459351.4258455441</v>
       </c>
       <c r="P4" t="n">
         <v>459351.4258455441</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24544.28478191324</v>
+        <v>24544.28478191325</v>
       </c>
       <c r="F5" t="n">
         <v>24544.28478191325</v>
@@ -26491,16 +26491,16 @@
         <v>35590.54897877821</v>
       </c>
       <c r="J5" t="n">
-        <v>47597.82369096752</v>
+        <v>47597.82369096753</v>
       </c>
       <c r="K5" t="n">
-        <v>47597.82369096751</v>
+        <v>47597.82369096753</v>
       </c>
       <c r="L5" t="n">
-        <v>47597.82369096752</v>
+        <v>47597.82369096753</v>
       </c>
       <c r="M5" t="n">
-        <v>44450.48236019507</v>
+        <v>44450.48236019508</v>
       </c>
       <c r="N5" t="n">
         <v>44450.48236019508</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90028.62375238663</v>
+        <v>90024.15736818155</v>
       </c>
       <c r="C6" t="n">
-        <v>90028.62375238675</v>
+        <v>90024.15736818143</v>
       </c>
       <c r="D6" t="n">
-        <v>90028.62375238686</v>
+        <v>90024.15736818143</v>
       </c>
       <c r="E6" t="n">
-        <v>-152994.317764229</v>
+        <v>-153303.6389138241</v>
       </c>
       <c r="F6" t="n">
-        <v>119196.0514723619</v>
+        <v>118886.730322767</v>
       </c>
       <c r="G6" t="n">
-        <v>19114.48504068356</v>
+        <v>19114.48504068327</v>
       </c>
       <c r="H6" t="n">
-        <v>124230.6557753415</v>
+        <v>124230.6557753414</v>
       </c>
       <c r="I6" t="n">
         <v>124230.6557753414</v>
       </c>
       <c r="J6" t="n">
-        <v>-50005.5483840541</v>
+        <v>-50005.54838405422</v>
       </c>
       <c r="K6" t="n">
         <v>111277.4537213817</v>
       </c>
       <c r="L6" t="n">
-        <v>6161.282986723527</v>
+        <v>6161.282986723229</v>
       </c>
       <c r="M6" t="n">
-        <v>96260.42821907165</v>
+        <v>96260.42821907159</v>
       </c>
       <c r="N6" t="n">
-        <v>114801.075995236</v>
+        <v>114801.0759952361</v>
       </c>
       <c r="O6" t="n">
-        <v>49643.3213907638</v>
+        <v>49643.32139076391</v>
       </c>
       <c r="P6" t="n">
-        <v>114801.0759952361</v>
+        <v>114801.0759952357</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="L2" t="n">
         <v>212.842406673913</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="F3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="G3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="H3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="I3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="J3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="K3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="L3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="M3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="N3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="O3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="P3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="F4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="G4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="H4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="I4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2004532872419</v>
+        <v>451.200453287242</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2004532872419</v>
+        <v>451.200453287242</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2004532872419</v>
+        <v>451.200453287242</v>
       </c>
       <c r="M4" t="n">
         <v>367.3894585809858</v>
@@ -26917,7 +26917,7 @@
         <v>204.3225024603463</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>131.3952134183226</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3952134183227</v>
+        <v>131.3952134183226</v>
       </c>
       <c r="M2" t="n">
-        <v>23.17580972020511</v>
+        <v>23.17580972020514</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.192102955689</v>
+        <v>104.1921029556891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>204.3225024603463</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>131.3952134183226</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,10 +28114,10 @@
         <v>75.75094664689101</v>
       </c>
       <c r="K11" t="n">
-        <v>5.182481516300321</v>
+        <v>5.182481516300292</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.2586170378896782</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,10 +28129,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.60432546608016</v>
+        <v>97.15670313444656</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.2113602625269</v>
+        <v>88.40036555627077</v>
       </c>
       <c r="R11" t="n">
         <v>194.1187303779996</v>
@@ -28190,7 +28190,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.8613090122909</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R12" t="n">
-        <v>50.505397625622</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S12" t="n">
-        <v>191.47010505155</v>
+        <v>107.6591103452938</v>
       </c>
       <c r="T12" t="n">
-        <v>204.3225024603463</v>
+        <v>137.1678557938146</v>
       </c>
       <c r="U12" t="n">
         <v>204.3225024603463</v>
@@ -28235,7 +28235,7 @@
         <v>204.3225024603463</v>
       </c>
       <c r="Y12" t="n">
-        <v>189.0291648061057</v>
+        <v>204.3225024603463</v>
       </c>
     </row>
     <row r="13">
@@ -28251,13 +28251,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>204.3225024603463</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>204.3225024603463</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.6953277291724</v>
@@ -28266,28 +28266,28 @@
         <v>204.3225024603463</v>
       </c>
       <c r="I13" t="n">
-        <v>164.6891559687103</v>
+        <v>169.8434178898124</v>
       </c>
       <c r="J13" t="n">
         <v>119.854490685719</v>
       </c>
       <c r="K13" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L13" t="n">
-        <v>79.58274535056864</v>
+        <v>115.1529611747455</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36299235552877</v>
+        <v>108.1739870617849</v>
       </c>
       <c r="N13" t="n">
-        <v>99.49758222464391</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70894732328662</v>
+        <v>36.70894732328661</v>
       </c>
       <c r="P13" t="n">
-        <v>57.81978506455185</v>
+        <v>141.630779770808</v>
       </c>
       <c r="Q13" t="n">
         <v>126.7608574128319</v>
@@ -28348,10 +28348,10 @@
         <v>204.3225024603463</v>
       </c>
       <c r="J14" t="n">
-        <v>159.5619413531471</v>
+        <v>154.2651563747637</v>
       </c>
       <c r="K14" t="n">
-        <v>5.441098554190063</v>
+        <v>5.182481516300292</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,16 +28360,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>5.555402016273121</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.34570842819042</v>
+        <v>13.34570842819038</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.4003655562708</v>
+        <v>88.40036555627077</v>
       </c>
       <c r="R14" t="n">
         <v>194.1187303779996</v>
@@ -28424,7 +28424,7 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I15" t="n">
-        <v>23.32871145653482</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J15" t="n">
         <v>51.8613090122909</v>
@@ -28448,16 +28448,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R15" t="n">
-        <v>67.16174566534629</v>
+        <v>134.3163923318781</v>
       </c>
       <c r="S15" t="n">
-        <v>191.47010505155</v>
+        <v>107.6591103452938</v>
       </c>
       <c r="T15" t="n">
-        <v>204.3225024603463</v>
+        <v>137.1678557938146</v>
       </c>
       <c r="U15" t="n">
         <v>204.3225024603463</v>
@@ -28485,7 +28485,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>204.3225024603463</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28494,37 +28494,37 @@
         <v>204.3225024603463</v>
       </c>
       <c r="F16" t="n">
-        <v>204.3225024603463</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.6953277291724</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7759671126257</v>
+        <v>192.7760763512094</v>
       </c>
       <c r="I16" t="n">
-        <v>204.3225024603463</v>
+        <v>164.6891559687103</v>
       </c>
       <c r="J16" t="n">
         <v>119.854490685719</v>
       </c>
       <c r="K16" t="n">
-        <v>110.0445734735483</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L16" t="n">
-        <v>31.34196646848939</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M16" t="n">
-        <v>24.36299235552877</v>
+        <v>108.1739870617849</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O16" t="n">
-        <v>36.70894732328662</v>
+        <v>120.5199420295428</v>
       </c>
       <c r="P16" t="n">
-        <v>141.630779770808</v>
+        <v>57.81978506455184</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7608574128319</v>
@@ -28582,13 +28582,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I17" t="n">
-        <v>309.7732828022039</v>
+        <v>240.5416033275749</v>
       </c>
       <c r="J17" t="n">
         <v>75.75094664689101</v>
       </c>
       <c r="K17" t="n">
-        <v>5.182481516300321</v>
+        <v>5.182481516300292</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34570842819042</v>
+        <v>97.15670313444656</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.4003655562708</v>
+        <v>88.40036555627077</v>
       </c>
       <c r="R17" t="n">
         <v>194.1187303779996</v>
@@ -28621,7 +28621,7 @@
         <v>250.1495700051708</v>
       </c>
       <c r="V17" t="n">
-        <v>335.7177158786689</v>
+        <v>321.1384006470417</v>
       </c>
       <c r="W17" t="n">
         <v>335.7177158786689</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.93949969140961</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28658,13 +28658,13 @@
         <v>148.7381070793004</v>
       </c>
       <c r="H18" t="n">
-        <v>41.86177871939132</v>
+        <v>125.6727734256474</v>
       </c>
       <c r="I18" t="n">
         <v>107.1397061627909</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.8613090122909</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,19 +28688,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.505397625622</v>
+        <v>50.50539762562195</v>
       </c>
       <c r="S18" t="n">
         <v>191.47010505155</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9447345427489</v>
+        <v>147.1640794656854</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276420366697</v>
+        <v>153.4166473304136</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>156.8379262091461</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>207.464940069253</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>119.854490685719</v>
       </c>
       <c r="K19" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L19" t="n">
-        <v>31.34196646848939</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M19" t="n">
-        <v>24.36299235552877</v>
+        <v>24.36299235552875</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O19" t="n">
-        <v>36.70894732328662</v>
+        <v>36.70894732328661</v>
       </c>
       <c r="P19" t="n">
-        <v>57.81978506455185</v>
+        <v>57.81978506455184</v>
       </c>
       <c r="Q19" t="n">
         <v>126.7608574128319</v>
@@ -28825,7 +28825,7 @@
         <v>75.75094664689101</v>
       </c>
       <c r="K20" t="n">
-        <v>5.182481516300321</v>
+        <v>5.182481516300292</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,25 +28840,25 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34570842819042</v>
+        <v>13.34570842819038</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.4003655562708</v>
+        <v>88.40036555627077</v>
       </c>
       <c r="R20" t="n">
         <v>194.1187303779996</v>
       </c>
       <c r="S20" t="n">
-        <v>227.240272421867</v>
+        <v>311.0512671281232</v>
       </c>
       <c r="T20" t="n">
-        <v>306.2237175255868</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U20" t="n">
-        <v>250.4081870430605</v>
+        <v>250.1495700051708</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>321.1384006470417</v>
       </c>
       <c r="W20" t="n">
         <v>335.7177158786689</v>
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>98.00684770252924</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28901,7 +28901,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.8613090122909</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R21" t="n">
-        <v>112.3569772068986</v>
+        <v>50.50539762562195</v>
       </c>
       <c r="S21" t="n">
         <v>191.47010505155</v>
@@ -28937,16 +28937,16 @@
         <v>153.4166473304136</v>
       </c>
       <c r="V21" t="n">
-        <v>156.8379262091461</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>182.8935888707555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>139.5732914277694</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>119.854490685719</v>
       </c>
       <c r="K22" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L22" t="n">
-        <v>31.34196646848939</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M22" t="n">
-        <v>24.36299235552877</v>
+        <v>24.36299235552875</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O22" t="n">
-        <v>36.70894732328662</v>
+        <v>36.70894732328661</v>
       </c>
       <c r="P22" t="n">
-        <v>57.81978506455185</v>
+        <v>57.81978506455184</v>
       </c>
       <c r="Q22" t="n">
         <v>126.7608574128319</v>
@@ -29056,13 +29056,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I23" t="n">
-        <v>240.8002203654647</v>
+        <v>240.5416033275749</v>
       </c>
       <c r="J23" t="n">
         <v>75.75094664689101</v>
       </c>
       <c r="K23" t="n">
-        <v>5.182481516300321</v>
+        <v>5.182481516300292</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,16 +29074,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.2586170378896924</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34570842819042</v>
+        <v>13.34570842819038</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.4003655562708</v>
+        <v>88.40036555627077</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1187303779996</v>
+        <v>277.9297250842558</v>
       </c>
       <c r="S23" t="n">
         <v>227.240272421867</v>
@@ -29092,7 +29092,7 @@
         <v>222.4127228193306</v>
       </c>
       <c r="U23" t="n">
-        <v>333.9605647114269</v>
+        <v>250.1495700051708</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3163923318781</v>
+        <v>50.50539762562195</v>
       </c>
       <c r="S24" t="n">
-        <v>117.6493809142795</v>
+        <v>107.6591103452938</v>
       </c>
       <c r="T24" t="n">
         <v>131.1337398364928</v>
@@ -29174,10 +29174,10 @@
         <v>237.2276420366697</v>
       </c>
       <c r="V24" t="n">
-        <v>156.8379262091461</v>
+        <v>166.8281967781318</v>
       </c>
       <c r="W24" t="n">
-        <v>182.8935888707555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29220,22 +29220,22 @@
         <v>119.854490685719</v>
       </c>
       <c r="K25" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L25" t="n">
-        <v>31.34196646848939</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M25" t="n">
-        <v>24.36299235552877</v>
+        <v>24.36299235552875</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O25" t="n">
-        <v>36.70894732328662</v>
+        <v>36.70894732328661</v>
       </c>
       <c r="P25" t="n">
-        <v>57.81978506455185</v>
+        <v>57.81978506455184</v>
       </c>
       <c r="Q25" t="n">
         <v>126.7608574128319</v>
@@ -29299,7 +29299,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="K26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739126</v>
       </c>
       <c r="L26" t="n">
         <v>212.842406673913</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>82.59235257943443</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7381070793004</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.040069060206879</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.85757111479006</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.47010505155</v>
@@ -29414,13 +29414,13 @@
         <v>212.842406673913</v>
       </c>
       <c r="W27" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.842406673913</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="28">
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.842406673913</v>
+        <v>168.6953277291724</v>
       </c>
       <c r="H28" t="n">
         <v>165.7759671126257</v>
@@ -29457,22 +29457,22 @@
         <v>119.854490685719</v>
       </c>
       <c r="K28" t="n">
+        <v>66.39711477387067</v>
+      </c>
+      <c r="L28" t="n">
+        <v>31.34196646848937</v>
+      </c>
+      <c r="M28" t="n">
+        <v>106.3786956597658</v>
+      </c>
+      <c r="N28" t="n">
+        <v>15.68658751838777</v>
+      </c>
+      <c r="O28" t="n">
+        <v>36.70894732328661</v>
+      </c>
+      <c r="P28" t="n">
         <v>212.842406673913</v>
-      </c>
-      <c r="L28" t="n">
-        <v>31.34196646848939</v>
-      </c>
-      <c r="M28" t="n">
-        <v>70.80894642434413</v>
-      </c>
-      <c r="N28" t="n">
-        <v>15.68658751838778</v>
-      </c>
-      <c r="O28" t="n">
-        <v>36.70894732328662</v>
-      </c>
-      <c r="P28" t="n">
-        <v>57.81978506455185</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7608574128319</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.8424066739126</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8424066739135</v>
+        <v>212.842406673913</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="30">
@@ -29591,16 +29591,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7381070793004</v>
@@ -29609,7 +29609,7 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J30" t="n">
         <v>51.8613090122909</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.47010505155</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V30" t="n">
-        <v>203.2761139122034</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8424066739129</v>
+        <v>137.9684509450217</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8424066739129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29694,49 +29694,49 @@
         <v>119.854490685719</v>
       </c>
       <c r="K31" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L31" t="n">
-        <v>31.34196646848939</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M31" t="n">
-        <v>212.8424066739129</v>
+        <v>175.3197680080459</v>
       </c>
       <c r="N31" t="n">
-        <v>64.24549811360222</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70894732328662</v>
+        <v>36.70894732328661</v>
       </c>
       <c r="P31" t="n">
-        <v>57.81978506455185</v>
+        <v>57.81978506455184</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.7608574128319</v>
+        <v>212.842406673913</v>
       </c>
       <c r="R31" t="n">
         <v>203.1850353264581</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="32">
@@ -29791,7 +29791,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8424066739126</v>
+        <v>212.842406673913</v>
       </c>
       <c r="R32" t="n">
         <v>212.842406673913</v>
@@ -29828,16 +29828,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7381070793004</v>
@@ -29846,10 +29846,10 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J33" t="n">
-        <v>42.29501625058074</v>
+        <v>51.8613090122909</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R33" t="n">
         <v>134.3163923318781</v>
@@ -29882,13 +29882,13 @@
         <v>212.842406673913</v>
       </c>
       <c r="U33" t="n">
-        <v>212.842406673913</v>
+        <v>3.652058613143623</v>
       </c>
       <c r="V33" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.842406673913</v>
@@ -29931,28 +29931,28 @@
         <v>119.854490685719</v>
       </c>
       <c r="K34" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L34" t="n">
-        <v>31.34196646848939</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M34" t="n">
-        <v>175.3197680080457</v>
+        <v>24.36299235552875</v>
       </c>
       <c r="N34" t="n">
-        <v>15.68658751838778</v>
+        <v>66.9340817339047</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70894732328662</v>
+        <v>212.842406673913</v>
       </c>
       <c r="P34" t="n">
-        <v>57.81978506455185</v>
+        <v>57.81978506455184</v>
       </c>
       <c r="Q34" t="n">
+        <v>126.7608574128319</v>
+      </c>
+      <c r="R34" t="n">
         <v>212.842406673913</v>
-      </c>
-      <c r="R34" t="n">
-        <v>203.1850353264581</v>
       </c>
       <c r="S34" t="n">
         <v>212.842406673913</v>
@@ -30013,25 +30013,25 @@
         <v>236.0182163941181</v>
       </c>
       <c r="L35" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>167.6146856918975</v>
+      </c>
+      <c r="P35" t="n">
         <v>236.0182163941181</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>121.1138061517456</v>
-      </c>
       <c r="Q35" t="n">
-        <v>88.4003655562708</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="R35" t="n">
-        <v>194.1187303779996</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="S35" t="n">
         <v>227.240272421867</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>6.732077786826125</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.040069060206879</v>
+        <v>6.040069060206864</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>203.8502579581081</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30150,7 +30150,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>214.9400637650242</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30168,34 +30168,34 @@
         <v>119.854490685719</v>
       </c>
       <c r="K37" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L37" t="n">
-        <v>31.34196646848939</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M37" t="n">
-        <v>33.48266932986623</v>
+        <v>24.36299235552875</v>
       </c>
       <c r="N37" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O37" t="n">
-        <v>36.70894732328662</v>
+        <v>36.70894732328661</v>
       </c>
       <c r="P37" t="n">
-        <v>57.81978506455185</v>
+        <v>57.81978506455184</v>
       </c>
       <c r="Q37" t="n">
+        <v>126.7608574128319</v>
+      </c>
+      <c r="R37" t="n">
         <v>236.0182163941181</v>
-      </c>
-      <c r="R37" t="n">
-        <v>203.1850353264581</v>
       </c>
       <c r="S37" t="n">
         <v>235.3431145613827</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7382840589537</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="U37" t="n">
         <v>236.0182163941181</v>
@@ -30247,22 +30247,22 @@
         <v>236.0182163941181</v>
       </c>
       <c r="K38" t="n">
-        <v>5.182481516300321</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>131.8855397166694</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>236.0182163941181</v>
-      </c>
-      <c r="N38" t="n">
-        <v>140.0487666285595</v>
       </c>
       <c r="O38" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="P38" t="n">
-        <v>236.0182163941181</v>
+        <v>13.34570842819038</v>
       </c>
       <c r="Q38" t="n">
         <v>236.0182163941181</v>
@@ -30302,22 +30302,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>159.0220822518411</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H39" t="n">
-        <v>42.71690087753763</v>
+        <v>125.6727734256474</v>
       </c>
       <c r="I39" t="n">
         <v>107.1397061627909</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.040069060206879</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.3163923318781</v>
@@ -30353,16 +30353,16 @@
         <v>191.47010505155</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="W39" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30393,10 +30393,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>236.0182163941181</v>
+        <v>168.6953277291724</v>
       </c>
       <c r="H40" t="n">
-        <v>216.8301144033036</v>
+        <v>165.7759671126257</v>
       </c>
       <c r="I40" t="n">
         <v>164.6891559687103</v>
@@ -30405,22 +30405,22 @@
         <v>119.854490685719</v>
       </c>
       <c r="K40" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L40" t="n">
-        <v>31.34196646848939</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M40" t="n">
-        <v>24.36299235552877</v>
+        <v>24.36299235552875</v>
       </c>
       <c r="N40" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70894732328662</v>
+        <v>36.70894732328661</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81978506455185</v>
+        <v>176.1968210201755</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7608574128319</v>
@@ -30484,16 +30484,16 @@
         <v>75.75094664689101</v>
       </c>
       <c r="K41" t="n">
-        <v>133.7632250611256</v>
+        <v>5.182481516300292</v>
       </c>
       <c r="L41" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="N41" t="n">
-        <v>236.0182163941181</v>
+        <v>114.9752499700375</v>
       </c>
       <c r="O41" t="n">
         <v>236.0182163941181</v>
@@ -30511,7 +30511,7 @@
         <v>227.240272421867</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4127228193306</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="U41" t="n">
         <v>236.0182163941181</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.040069060206879</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3163923318781</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.47010505155</v>
+        <v>82.34569356815422</v>
       </c>
       <c r="T42" t="n">
         <v>214.9447345427489</v>
@@ -30596,16 +30596,16 @@
         <v>236.0182163941181</v>
       </c>
       <c r="V42" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>131.9486057015632</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30642,22 +30642,22 @@
         <v>119.854490685719</v>
       </c>
       <c r="K43" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L43" t="n">
-        <v>149.719002424113</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M43" t="n">
-        <v>24.36299235552877</v>
+        <v>24.36299235552875</v>
       </c>
       <c r="N43" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O43" t="n">
-        <v>36.70894732328662</v>
+        <v>36.70894732328661</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81978506455185</v>
+        <v>176.1968210201755</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7608574128319</v>
@@ -30718,10 +30718,10 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J44" t="n">
-        <v>140.0487666285594</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="K44" t="n">
-        <v>5.182481516300321</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="L44" t="n">
         <v>236.0182163941181</v>
@@ -30730,13 +30730,13 @@
         <v>236.0182163941181</v>
       </c>
       <c r="N44" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>145.4910332914565</v>
       </c>
       <c r="P44" t="n">
-        <v>236.0182163941181</v>
+        <v>13.34570842819038</v>
       </c>
       <c r="Q44" t="n">
         <v>236.0182163941181</v>
@@ -30748,7 +30748,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="T44" t="n">
-        <v>236.0182163941181</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U44" t="n">
         <v>236.0182163941181</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.040069060206879</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3163923318781</v>
       </c>
       <c r="S45" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9447345427489</v>
       </c>
       <c r="U45" t="n">
+        <v>112.1458653738494</v>
+      </c>
+      <c r="V45" t="n">
         <v>236.0182163941181</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="X45" t="n">
-        <v>142.7162628282634</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30864,10 +30864,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6953277291724</v>
+        <v>177.7010971739601</v>
       </c>
       <c r="H46" t="n">
         <v>165.7759671126257</v>
@@ -30879,34 +30879,34 @@
         <v>119.854490685719</v>
       </c>
       <c r="K46" t="n">
-        <v>66.39711477387068</v>
+        <v>66.39711477387067</v>
       </c>
       <c r="L46" t="n">
-        <v>31.34196646848939</v>
+        <v>31.34196646848937</v>
       </c>
       <c r="M46" t="n">
-        <v>24.36299235552877</v>
+        <v>24.36299235552875</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68658751838778</v>
+        <v>15.68658751838777</v>
       </c>
       <c r="O46" t="n">
-        <v>36.70894732328662</v>
+        <v>36.70894732328661</v>
       </c>
       <c r="P46" t="n">
-        <v>143.3636399525155</v>
+        <v>57.81978506455184</v>
       </c>
       <c r="Q46" t="n">
         <v>126.7608574128319</v>
       </c>
       <c r="R46" t="n">
-        <v>236.0182163941181</v>
+        <v>203.1850353264581</v>
       </c>
       <c r="S46" t="n">
         <v>235.3431145613827</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7382840589537</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="U46" t="n">
         <v>236.0182163941181</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H11" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I11" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L11" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M11" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N11" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O11" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P11" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R11" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S11" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T11" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H12" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K12" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M12" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N12" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O12" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P12" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R12" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S12" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474416551259751</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I13" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J13" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K13" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L13" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M13" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N13" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O13" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R13" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H14" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I14" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L14" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M14" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N14" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O14" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R14" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S14" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T14" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H15" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K15" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M15" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N15" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O15" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P15" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R15" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S15" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474416551259751</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I16" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J16" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K16" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L16" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M16" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P16" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R16" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H17" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I17" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L17" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M17" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N17" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O17" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P17" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R17" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S17" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T17" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H18" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K18" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M18" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N18" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O18" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P18" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R18" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S18" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474416551259751</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I19" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J19" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K19" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L19" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M19" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O19" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P19" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R19" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H20" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I20" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L20" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M20" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N20" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O20" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P20" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R20" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S20" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T20" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H21" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K21" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M21" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N21" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O21" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P21" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R21" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S21" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474416551259751</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I22" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J22" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K22" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L22" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M22" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O22" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P22" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R22" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H23" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I23" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L23" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M23" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N23" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O23" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R23" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S23" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T23" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H24" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K24" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M24" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N24" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O24" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P24" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R24" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S24" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474416551259751</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I25" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J25" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K25" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L25" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M25" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O25" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P25" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R25" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H26" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I26" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L26" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M26" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N26" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O26" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S26" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T26" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H27" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K27" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M27" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N27" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O27" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P27" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R27" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S27" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474416551259751</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H28" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I28" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J28" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K28" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L28" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M28" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O28" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P28" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R28" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H29" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I29" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L29" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M29" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N29" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O29" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R29" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S29" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T29" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H30" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K30" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M30" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N30" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O30" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P30" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R30" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S30" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474416551259751</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H31" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I31" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J31" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K31" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L31" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M31" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O31" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P31" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R31" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H32" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I32" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L32" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M32" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N32" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O32" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R32" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S32" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T32" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H33" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K33" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M33" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N33" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O33" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P33" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R33" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S33" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474416551259751</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H34" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I34" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J34" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K34" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L34" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M34" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O34" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P34" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R34" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H35" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I35" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L35" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M35" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N35" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O35" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R35" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S35" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H36" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K36" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M36" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N36" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O36" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P36" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R36" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S36" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474416551259751</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H37" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I37" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J37" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K37" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L37" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M37" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O37" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P37" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R37" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H38" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I38" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L38" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M38" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N38" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O38" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R38" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S38" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T38" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H39" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K39" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M39" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N39" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O39" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P39" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R39" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S39" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474416551259751</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H40" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I40" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J40" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K40" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L40" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M40" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O40" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P40" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R40" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H41" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I41" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L41" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M41" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N41" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O41" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R41" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S41" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T41" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H42" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K42" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M42" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N42" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O42" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P42" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R42" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S42" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474416551259751</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H43" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I43" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J43" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K43" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L43" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M43" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O43" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P43" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R43" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188627254500057</v>
+        <v>0.4188627254500059</v>
       </c>
       <c r="H44" t="n">
-        <v>4.289677887014872</v>
+        <v>4.289677887014874</v>
       </c>
       <c r="I44" t="n">
-        <v>16.14820522291136</v>
+        <v>16.14820522291137</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55045024416246</v>
+        <v>35.55045024416247</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28090941246121</v>
+        <v>53.28090941246123</v>
       </c>
       <c r="L44" t="n">
-        <v>66.09967954645182</v>
+        <v>66.09967954645187</v>
       </c>
       <c r="M44" t="n">
-        <v>73.54862954017337</v>
+        <v>73.54862954017341</v>
       </c>
       <c r="N44" t="n">
-        <v>74.7387232588582</v>
+        <v>74.73872325885824</v>
       </c>
       <c r="O44" t="n">
-        <v>70.5736570326647</v>
+        <v>70.57365703266474</v>
       </c>
       <c r="P44" t="n">
-        <v>60.23298349811768</v>
+        <v>60.23298349811771</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.23246214293933</v>
+        <v>45.23246214293936</v>
       </c>
       <c r="R44" t="n">
-        <v>26.31138567754894</v>
+        <v>26.31138567754896</v>
       </c>
       <c r="S44" t="n">
-        <v>9.544834356192014</v>
+        <v>9.54483435619202</v>
       </c>
       <c r="T44" t="n">
-        <v>1.833571580657401</v>
+        <v>1.833571580657402</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03350901803600045</v>
+        <v>0.03350901803600047</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.224111315791482</v>
+        <v>0.2241113157914821</v>
       </c>
       <c r="H45" t="n">
-        <v>2.164443497249313</v>
+        <v>2.164443497249315</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716113284926026</v>
+        <v>7.71611328492603</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17360462045752</v>
+        <v>21.17360462045753</v>
       </c>
       <c r="K45" t="n">
-        <v>36.18906277848681</v>
+        <v>36.18906277848683</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66066091340929</v>
+        <v>48.66066091340931</v>
       </c>
       <c r="M45" t="n">
-        <v>56.7846961108505</v>
+        <v>56.78469611085053</v>
       </c>
       <c r="N45" t="n">
-        <v>58.28761804876795</v>
+        <v>58.28761804876797</v>
       </c>
       <c r="O45" t="n">
-        <v>53.3217831041251</v>
+        <v>53.32178310412513</v>
       </c>
       <c r="P45" t="n">
-        <v>42.795431872498</v>
+        <v>42.79543187249802</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.60761287190918</v>
+        <v>28.60761287190919</v>
       </c>
       <c r="R45" t="n">
-        <v>13.91456046642202</v>
+        <v>13.91456046642203</v>
       </c>
       <c r="S45" t="n">
-        <v>4.162769396390025</v>
+        <v>4.162769396390027</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9033258737384732</v>
+        <v>0.9033258737384736</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474416551259751</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1878873987725539</v>
+        <v>0.187887398772554</v>
       </c>
       <c r="H46" t="n">
-        <v>1.670489781814162</v>
+        <v>1.670489781814163</v>
       </c>
       <c r="I46" t="n">
-        <v>5.650286501269168</v>
+        <v>5.650286501269171</v>
       </c>
       <c r="J46" t="n">
-        <v>13.28363909321956</v>
+        <v>13.28363909321957</v>
       </c>
       <c r="K46" t="n">
-        <v>21.82909960284762</v>
+        <v>21.82909960284763</v>
       </c>
       <c r="L46" t="n">
-        <v>27.93373199569406</v>
+        <v>27.93373199569408</v>
       </c>
       <c r="M46" t="n">
-        <v>29.45220379122861</v>
+        <v>29.45220379122862</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75189621398548</v>
+        <v>28.75189621398549</v>
       </c>
       <c r="O46" t="n">
-        <v>26.55702978286972</v>
+        <v>26.55702978286973</v>
       </c>
       <c r="P46" t="n">
-        <v>22.7241268479096</v>
+        <v>22.72412684790961</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.73300754630904</v>
+        <v>15.73300754630905</v>
       </c>
       <c r="R46" t="n">
-        <v>8.448100675718649</v>
+        <v>8.448100675718653</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274364940427143</v>
+        <v>3.274364940427144</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8027916129372755</v>
+        <v>0.802791612937276</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01024840356941204</v>
+        <v>0.01024840356941205</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.10912031175926</v>
+        <v>49.36773734964898</v>
       </c>
       <c r="M11" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N11" t="n">
-        <v>78.255592689983</v>
+        <v>78.25559268998305</v>
       </c>
       <c r="O11" t="n">
-        <v>36.61235655646587</v>
+        <v>36.61235655646591</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2586170378897419</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.39598081391982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>80.42469188984175</v>
       </c>
       <c r="M12" t="n">
-        <v>41.02871107592193</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N12" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="O12" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="P12" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,13 +35547,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.13985220963556</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.39562024189962</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35562,7 +35562,7 @@
         <v>38.54653534772056</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.154261921102156</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>48.24077888207925</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N13" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83.81099470625612</v>
+        <v>78.5142097278727</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2586170378897419</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.10912031175926</v>
+        <v>49.1091203117593</v>
       </c>
       <c r="M14" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N14" t="n">
-        <v>78.255592689983</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="O14" t="n">
-        <v>36.61235655646587</v>
+        <v>36.61235655646591</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L15" t="n">
-        <v>41.02871107592193</v>
+        <v>41.02871107592192</v>
       </c>
       <c r="M15" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N15" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35781,46 +35781,46 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.86532148837392</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>62.64636124812134</v>
+        <v>62.64636124812128</v>
       </c>
       <c r="F16" t="n">
-        <v>65.39562024189968</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>27.00010923858367</v>
       </c>
       <c r="I16" t="n">
-        <v>39.63334649163608</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>43.64745869967762</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="P16" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>69.23167947462898</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.10912031175926</v>
+        <v>49.1091203117593</v>
       </c>
       <c r="M17" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N17" t="n">
-        <v>78.255592689983</v>
+        <v>78.25559268998305</v>
       </c>
       <c r="O17" t="n">
-        <v>36.61235655646587</v>
+        <v>36.61235655646591</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8379322695169</v>
+        <v>0.2586170378896845</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>80.42469188984175</v>
       </c>
       <c r="M18" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N18" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="P18" t="n">
-        <v>80.42469188984172</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.10912031175926</v>
+        <v>49.1091203117593</v>
       </c>
       <c r="M20" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N20" t="n">
-        <v>78.255592689983</v>
+        <v>78.25559268998305</v>
       </c>
       <c r="O20" t="n">
-        <v>36.61235655646587</v>
+        <v>36.61235655646591</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,16 +36145,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="T20" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2586170378897419</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.2586170378896845</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>41.02871107592193</v>
+        <v>41.02871107592192</v>
       </c>
       <c r="N21" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="O21" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="P21" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2586170378897401</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.10912031175926</v>
+        <v>49.1091203117593</v>
       </c>
       <c r="M23" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N23" t="n">
-        <v>78.255592689983</v>
+        <v>78.25559268998305</v>
       </c>
       <c r="O23" t="n">
-        <v>36.61235655646587</v>
+        <v>36.8709735943556</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L24" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>83.81099470625612</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N24" t="n">
-        <v>80.42469188984172</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="O24" t="n">
-        <v>83.81099470625612</v>
+        <v>41.02871107592194</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>137.091460027022</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6599251576126</v>
+        <v>207.6599251576123</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9515269856722</v>
+        <v>261.9515269856723</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6534013801691</v>
+        <v>296.6534013801692</v>
       </c>
       <c r="N26" t="n">
         <v>291.097999363896</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4547632303788</v>
+        <v>249.4547632303789</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4966982457225</v>
+        <v>199.4966982457226</v>
       </c>
       <c r="Q26" t="n">
         <v>124.4420411176422</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72367629591335</v>
+        <v>18.72367629591337</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L27" t="n">
         <v>119.9288613386043</v>
@@ -36683,13 +36683,13 @@
         <v>185.1580560359881</v>
       </c>
       <c r="N27" t="n">
-        <v>208.6645878817239</v>
+        <v>208.664587881724</v>
       </c>
       <c r="O27" t="n">
         <v>134.5771477732237</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71052890569439</v>
+        <v>85.71052890569442</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.14707894474055</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4452919000423</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>46.44595406881535</v>
+        <v>82.01570330423705</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0226216093611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0914600270219</v>
+        <v>137.091460027022</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6599251576126</v>
+        <v>207.6599251576127</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9515269856722</v>
+        <v>261.9515269856719</v>
       </c>
       <c r="M29" t="n">
-        <v>296.653401380169</v>
+        <v>296.6534013801692</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0979993638959</v>
+        <v>291.097999363896</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4547632303788</v>
+        <v>249.4547632303789</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4966982457225</v>
+        <v>199.4966982457226</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4420411176427</v>
+        <v>124.4420411176422</v>
       </c>
       <c r="R29" t="n">
-        <v>18.7236762959133</v>
+        <v>18.72367629591337</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L30" t="n">
         <v>119.9288613386043</v>
@@ -36920,13 +36920,13 @@
         <v>185.1580560359881</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6645878817239</v>
+        <v>208.664587881724</v>
       </c>
       <c r="O30" t="n">
         <v>134.5771477732237</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71052890569439</v>
+        <v>85.71052890569442</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.4794143183842</v>
+        <v>150.9567756525171</v>
       </c>
       <c r="N31" t="n">
-        <v>48.55891059521444</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.08154926108102</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>207.6599251576127</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9515269856722</v>
+        <v>261.9515269856723</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6534013801691</v>
+        <v>296.6534013801692</v>
       </c>
       <c r="N32" t="n">
         <v>291.097999363896</v>
@@ -37087,7 +37087,7 @@
         <v>199.4966982457226</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4420411176418</v>
+        <v>124.4420411176422</v>
       </c>
       <c r="R32" t="n">
         <v>18.72367629591338</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L33" t="n">
         <v>119.9288613386043</v>
@@ -37157,13 +37157,13 @@
         <v>185.1580560359881</v>
       </c>
       <c r="N33" t="n">
-        <v>208.6645878817239</v>
+        <v>208.664587881724</v>
       </c>
       <c r="O33" t="n">
         <v>134.5771477732237</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71052890569439</v>
+        <v>85.71052890569442</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,22 +37233,22 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>150.9567756525169</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>51.24749421551694</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1334593506264</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.08154926108105</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.657371347454845</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>230.8357348778178</v>
       </c>
       <c r="L35" t="n">
-        <v>285.1273367058774</v>
+        <v>49.1091203117593</v>
       </c>
       <c r="M35" t="n">
-        <v>319.8292111003742</v>
+        <v>319.8292111003743</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2738090841011</v>
+        <v>78.25559268998305</v>
       </c>
       <c r="O35" t="n">
-        <v>36.61235655646587</v>
+        <v>204.2270422483634</v>
       </c>
       <c r="P35" t="n">
-        <v>107.7680977235552</v>
+        <v>222.6725079659277</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>147.6178508378473</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.8994860161185</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L36" t="n">
         <v>119.9288613386043</v>
@@ -37394,13 +37394,13 @@
         <v>185.1580560359881</v>
       </c>
       <c r="N36" t="n">
-        <v>208.6645878817239</v>
+        <v>208.664587881724</v>
       </c>
       <c r="O36" t="n">
         <v>134.5771477732237</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71052890569439</v>
+        <v>85.71052890569442</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>73.26392255279922</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>9.119676974337464</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37482,16 +37482,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.2573589812862</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>32.83318106765998</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>12.27993233516442</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37543,34 +37543,34 @@
         <v>160.2672697472271</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>230.8357348778178</v>
       </c>
       <c r="L38" t="n">
-        <v>49.10912031175926</v>
+        <v>180.9946600284287</v>
       </c>
       <c r="M38" t="n">
-        <v>319.8292111003742</v>
+        <v>83.81099470625617</v>
       </c>
       <c r="N38" t="n">
-        <v>218.3043593185425</v>
+        <v>314.2738090841011</v>
       </c>
       <c r="O38" t="n">
         <v>272.630572950584</v>
       </c>
       <c r="P38" t="n">
-        <v>222.6725079659277</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>147.6178508378473</v>
       </c>
       <c r="R38" t="n">
-        <v>41.89948601611849</v>
+        <v>41.8994860161185</v>
       </c>
       <c r="S38" t="n">
-        <v>8.77794397225111</v>
+        <v>8.777943972251116</v>
       </c>
       <c r="T38" t="n">
-        <v>13.60549357478745</v>
+        <v>13.60549357478746</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L39" t="n">
         <v>119.9288613386043</v>
@@ -37631,13 +37631,13 @@
         <v>185.1580560359881</v>
       </c>
       <c r="N39" t="n">
-        <v>208.6645878817239</v>
+        <v>208.664587881724</v>
       </c>
       <c r="O39" t="n">
         <v>134.5771477732237</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71052890569439</v>
+        <v>85.71052890569442</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37689,10 +37689,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>67.32288866494569</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>51.05414729067793</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>118.3770359556236</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>128.5807435448253</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>285.1273367058774</v>
       </c>
       <c r="M41" t="n">
-        <v>83.81099470625612</v>
+        <v>319.8292111003743</v>
       </c>
       <c r="N41" t="n">
-        <v>314.2738090841011</v>
+        <v>193.2308426600206</v>
       </c>
       <c r="O41" t="n">
         <v>272.630572950584</v>
@@ -37807,7 +37807,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.60549357478746</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L42" t="n">
         <v>119.9288613386043</v>
@@ -37868,13 +37868,13 @@
         <v>185.1580560359881</v>
       </c>
       <c r="N42" t="n">
-        <v>208.6645878817239</v>
+        <v>208.664587881724</v>
       </c>
       <c r="O42" t="n">
         <v>134.5771477732237</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71052890569439</v>
+        <v>85.71052890569442</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>118.3770359556236</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>64.29781998166841</v>
+        <v>160.2672697472271</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>230.8357348778178</v>
       </c>
       <c r="L44" t="n">
         <v>285.1273367058774</v>
       </c>
       <c r="M44" t="n">
-        <v>319.8292111003742</v>
+        <v>319.8292111003743</v>
       </c>
       <c r="N44" t="n">
-        <v>314.2738090841011</v>
+        <v>78.25559268998305</v>
       </c>
       <c r="O44" t="n">
-        <v>36.61235655646587</v>
+        <v>182.1033898479224</v>
       </c>
       <c r="P44" t="n">
-        <v>222.6725079659277</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>147.6178508378473</v>
       </c>
       <c r="R44" t="n">
-        <v>41.89948601611849</v>
+        <v>41.8994860161185</v>
       </c>
       <c r="S44" t="n">
-        <v>8.77794397225111</v>
+        <v>8.777943972251116</v>
       </c>
       <c r="T44" t="n">
-        <v>13.60549357478745</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.39598081391982</v>
+        <v>39.39598081391983</v>
       </c>
       <c r="L45" t="n">
         <v>119.9288613386043</v>
@@ -38105,13 +38105,13 @@
         <v>185.1580560359881</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6645878817239</v>
+        <v>208.664587881724</v>
       </c>
       <c r="O45" t="n">
         <v>134.5771477732237</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71052890569439</v>
+        <v>85.71052890569442</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38160,10 +38160,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.09133417567145</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>9.005769444787729</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38190,19 +38190,19 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>85.54385488796363</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>32.83318106765998</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>12.27993233516442</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
